--- a/rec_selectivity_by_state_cdf_star_raw_18_19_lb.xlsx
+++ b/rec_selectivity_by_state_cdf_star_raw_18_19_lb.xlsx
@@ -136,7 +136,7 @@
         <v>413071</v>
       </c>
       <c r="E2" s="1">
-        <v>1.1609237009213569e-11</v>
+        <v>1.9496260075108074e-12</v>
       </c>
     </row>
     <row r="3">
@@ -153,7 +153,7 @@
         <v>413071</v>
       </c>
       <c r="E3" s="1">
-        <v>9.4581330614684767e-13</v>
+        <v>1.5883750207040109e-13</v>
       </c>
     </row>
     <row r="4">
@@ -170,7 +170,7 @@
         <v>413071</v>
       </c>
       <c r="E4" s="1">
-        <v>4.8175863298638433e-09</v>
+        <v>8.0905326882430018e-10</v>
       </c>
     </row>
     <row r="5">
@@ -187,7 +187,7 @@
         <v>413071</v>
       </c>
       <c r="E5" s="1">
-        <v>5.469468433716429e-09</v>
+        <v>9.1852875305775683e-10</v>
       </c>
     </row>
     <row r="6">
@@ -204,7 +204,7 @@
         <v>413071</v>
       </c>
       <c r="E6" s="1">
-        <v>3.1053858151608438e-08</v>
+        <v>5.2151061247229791e-09</v>
       </c>
     </row>
     <row r="7">
@@ -221,7 +221,7 @@
         <v>413071</v>
       </c>
       <c r="E7" s="1">
-        <v>2.4233260731421069e-08</v>
+        <v>4.0696725989164406e-09</v>
       </c>
     </row>
     <row r="8">
@@ -238,7 +238,7 @@
         <v>413071</v>
       </c>
       <c r="E8" s="1">
-        <v>1.0912947345786961e-07</v>
+        <v>1.8326927531120418e-08</v>
       </c>
     </row>
     <row r="9">
@@ -255,7 +255,7 @@
         <v>413071</v>
       </c>
       <c r="E9" s="1">
-        <v>2.0448227644465078e-07</v>
+        <v>3.4340235544050302e-08</v>
       </c>
     </row>
     <row r="10">
@@ -272,7 +272,7 @@
         <v>413071</v>
       </c>
       <c r="E10" s="1">
-        <v>1.5778584838699317e-07</v>
+        <v>2.6498158334220534e-08</v>
       </c>
     </row>
     <row r="11">
@@ -289,7 +289,7 @@
         <v>413071</v>
       </c>
       <c r="E11" s="1">
-        <v>9.0275435127296078e-08</v>
+        <v>1.5160628308308333e-08</v>
       </c>
     </row>
     <row r="12">
@@ -306,7 +306,7 @@
         <v>413071</v>
       </c>
       <c r="E12" s="1">
-        <v>2.563953671597119e-07</v>
+        <v>4.3058392407147039e-08</v>
       </c>
     </row>
     <row r="13">
@@ -323,7 +323,7 @@
         <v>413071</v>
       </c>
       <c r="E13" s="1">
-        <v>2.9210275442892453e-07</v>
+        <v>4.9054996509312332e-08</v>
       </c>
     </row>
     <row r="14">
@@ -340,7 +340,7 @@
         <v>413071</v>
       </c>
       <c r="E14" s="1">
-        <v>4.1772989334276645e-07</v>
+        <v>7.0152502473774803e-08</v>
       </c>
     </row>
     <row r="15">
@@ -357,7 +357,7 @@
         <v>413071</v>
       </c>
       <c r="E15" s="1">
-        <v>1.1331883342791116e-07</v>
+        <v>1.9030478526360639e-08</v>
       </c>
     </row>
     <row r="16">
@@ -374,7 +374,7 @@
         <v>413071</v>
       </c>
       <c r="E16" s="1">
-        <v>5.9132027274699794e-08</v>
+        <v>9.9304831024937812e-09</v>
       </c>
     </row>
     <row r="17">
@@ -391,7 +391,7 @@
         <v>413071</v>
       </c>
       <c r="E17" s="1">
-        <v>9.0155587884055421e-08</v>
+        <v>1.5140502185317928e-08</v>
       </c>
     </row>
     <row r="18">
@@ -408,7 +408,7 @@
         <v>413071</v>
       </c>
       <c r="E18" s="1">
-        <v>3.7749348535953686e-08</v>
+        <v>6.3395302341007209e-09</v>
       </c>
     </row>
     <row r="19">
@@ -425,7 +425,7 @@
         <v>413071</v>
       </c>
       <c r="E19" s="1">
-        <v>3.0505393766588895e-08</v>
+        <v>5.1229984698863973e-09</v>
       </c>
     </row>
     <row r="20">
@@ -442,7 +442,7 @@
         <v>413071</v>
       </c>
       <c r="E20" s="1">
-        <v>1.9147689656051625e-08</v>
+        <v>3.2156146634321203e-09</v>
       </c>
     </row>
     <row r="21">
@@ -459,7 +459,7 @@
         <v>413071</v>
       </c>
       <c r="E21" s="1">
-        <v>7.1710157811821773e-09</v>
+        <v>1.2042823405167269e-09</v>
       </c>
     </row>
     <row r="22">
@@ -476,7 +476,7 @@
         <v>413071</v>
       </c>
       <c r="E22" s="1">
-        <v>1.701315643920509e-09</v>
+        <v>2.8571464638638133e-10</v>
       </c>
     </row>
     <row r="23">
@@ -493,7 +493,7 @@
         <v>413071</v>
       </c>
       <c r="E23" s="1">
-        <v>8.3771185543923821e-09</v>
+        <v>1.4068322062854577e-09</v>
       </c>
     </row>
     <row r="24">
@@ -510,7 +510,7 @@
         <v>413071</v>
       </c>
       <c r="E24" s="1">
-        <v>1.3217958283462394e-08</v>
+        <v>2.2197905735765744e-09</v>
       </c>
     </row>
     <row r="25">
@@ -527,7 +527,7 @@
         <v>413071</v>
       </c>
       <c r="E25" s="1">
-        <v>9.9037306133809011e-11</v>
+        <v>1.6632075924838396e-11</v>
       </c>
     </row>
     <row r="26">
@@ -544,7 +544,7 @@
         <v>413071</v>
       </c>
       <c r="E26" s="1">
-        <v>7.2502892578540923e-09</v>
+        <v>1.2175952468496121e-09</v>
       </c>
     </row>
     <row r="27">
@@ -561,7 +561,7 @@
         <v>413071</v>
       </c>
       <c r="E27" s="1">
-        <v>3.7844777311946132e-10</v>
+        <v>6.3555563589723363e-11</v>
       </c>
     </row>
     <row r="28">
@@ -578,7 +578,7 @@
         <v>401288</v>
       </c>
       <c r="E28" s="1">
-        <v>5.5119631081623766e-11</v>
+        <v>2.00687274957978e-12</v>
       </c>
     </row>
     <row r="29">
@@ -595,7 +595,7 @@
         <v>401288</v>
       </c>
       <c r="E29" s="1">
-        <v>1.5229533190108668e-08</v>
+        <v>5.544981696026241e-10</v>
       </c>
     </row>
     <row r="30">
@@ -612,7 +612,7 @@
         <v>401288</v>
       </c>
       <c r="E30" s="1">
-        <v>1.2779595159884138e-08</v>
+        <v>4.6529738395584275e-10</v>
       </c>
     </row>
     <row r="31">
@@ -629,7 +629,7 @@
         <v>401288</v>
       </c>
       <c r="E31" s="1">
-        <v>1.692698248234592e-08</v>
+        <v>6.1630128778134008e-10</v>
       </c>
     </row>
     <row r="32">
@@ -646,7 +646,7 @@
         <v>401288</v>
       </c>
       <c r="E32" s="1">
-        <v>8.6497514928396413e-08</v>
+        <v>3.1493225804979375e-09</v>
       </c>
     </row>
     <row r="33">
@@ -663,7 +663,7 @@
         <v>401288</v>
       </c>
       <c r="E33" s="1">
-        <v>1.7999985857386491e-07</v>
+        <v>6.5536869264803954e-09</v>
       </c>
     </row>
     <row r="34">
@@ -680,7 +680,7 @@
         <v>401288</v>
       </c>
       <c r="E34" s="1">
-        <v>4.6607473791482334e-07</v>
+        <v>1.6969501359653805e-08</v>
       </c>
     </row>
     <row r="35">
@@ -697,7 +697,7 @@
         <v>401288</v>
       </c>
       <c r="E35" s="1">
-        <v>5.8750526932271896e-07</v>
+        <v>2.1390714977087555e-08</v>
       </c>
     </row>
     <row r="36">
@@ -714,7 +714,7 @@
         <v>401288</v>
       </c>
       <c r="E36" s="1">
-        <v>6.6370051854391932e-07</v>
+        <v>2.4164938494664057e-08</v>
       </c>
     </row>
     <row r="37">
@@ -731,7 +731,7 @@
         <v>401288</v>
       </c>
       <c r="E37" s="1">
-        <v>3.8391513612623385e-07</v>
+        <v>1.3978119994817462e-08</v>
       </c>
     </row>
     <row r="38">
@@ -748,7 +748,7 @@
         <v>401288</v>
       </c>
       <c r="E38" s="1">
-        <v>3.7467827951331856e-07</v>
+        <v>1.3641811236198009e-08</v>
       </c>
     </row>
     <row r="39">
@@ -765,7 +765,7 @@
         <v>401288</v>
       </c>
       <c r="E39" s="1">
-        <v>1.9302206055726856e-07</v>
+        <v>7.0278174391091852e-09</v>
       </c>
     </row>
     <row r="40">
@@ -782,7 +782,7 @@
         <v>401288</v>
       </c>
       <c r="E40" s="1">
-        <v>2.4946660914793028e-07</v>
+        <v>9.0829299637107397e-09</v>
       </c>
     </row>
     <row r="41">
@@ -799,7 +799,7 @@
         <v>401288</v>
       </c>
       <c r="E41" s="1">
-        <v>1.4480521315363148e-07</v>
+        <v>5.2722706200825087e-09</v>
       </c>
     </row>
     <row r="42">
@@ -816,7 +816,7 @@
         <v>401288</v>
       </c>
       <c r="E42" s="1">
-        <v>6.0669243850952626e-08</v>
+        <v>2.208930593994296e-09</v>
       </c>
     </row>
     <row r="43">
@@ -833,7 +833,7 @@
         <v>401288</v>
       </c>
       <c r="E43" s="1">
-        <v>4.0886909857817955e-08</v>
+        <v>1.4886678556536026e-09</v>
       </c>
     </row>
     <row r="44">
@@ -850,7 +850,7 @@
         <v>401288</v>
       </c>
       <c r="E44" s="1">
-        <v>6.9342675601546944e-08</v>
+        <v>2.5247250956539347e-09</v>
       </c>
     </row>
     <row r="45">
@@ -867,7 +867,7 @@
         <v>401288</v>
       </c>
       <c r="E45" s="1">
-        <v>7.8573908490753297e-10</v>
+        <v>2.8608287613862693e-11</v>
       </c>
     </row>
     <row r="46">
@@ -884,7 +884,7 @@
         <v>401288</v>
       </c>
       <c r="E46" s="1">
-        <v>7.5555357526013722e-09</v>
+        <v>2.7509253208712892e-10</v>
       </c>
     </row>
     <row r="47">
@@ -901,7 +901,7 @@
         <v>401288</v>
       </c>
       <c r="E47" s="1">
-        <v>1.1620807427448199e-08</v>
+        <v>4.231066053073107e-10</v>
       </c>
     </row>
     <row r="48">
@@ -918,7 +918,7 @@
         <v>401288</v>
       </c>
       <c r="E48" s="1">
-        <v>5.6791225944152757e-08</v>
+        <v>2.0677344281239129e-09</v>
       </c>
     </row>
     <row r="49">
@@ -935,7 +935,7 @@
         <v>401288</v>
       </c>
       <c r="E49" s="1">
-        <v>1.6305864991572605e-10</v>
+        <v>5.9368677508830903e-12</v>
       </c>
     </row>
     <row r="50">
@@ -952,7 +952,7 @@
         <v>401288</v>
       </c>
       <c r="E50" s="1">
-        <v>1.6104542699402202e-10</v>
+        <v>5.8635674440865593e-12</v>
       </c>
     </row>
     <row r="51">
@@ -969,7 +969,7 @@
         <v>401288</v>
       </c>
       <c r="E51" s="1">
-        <v>4.7022036264721123e-10</v>
+        <v>1.7120442216689291e-11</v>
       </c>
     </row>
     <row r="52">
@@ -986,7 +986,7 @@
         <v>401288</v>
       </c>
       <c r="E52" s="1">
-        <v>1.1978910086085648e-09</v>
+        <v>4.3614493960841827e-11</v>
       </c>
     </row>
     <row r="53">
@@ -1003,7 +1003,7 @@
         <v>401288</v>
       </c>
       <c r="E53" s="1">
-        <v>1.7968365684239984e-09</v>
+        <v>6.5421744410709692e-11</v>
       </c>
     </row>
     <row r="54">
@@ -1020,7 +1020,7 @@
         <v>104251</v>
       </c>
       <c r="E54" s="1">
-        <v>4.5998975461980507e-11</v>
+        <v>7.7249517546618129e-12</v>
       </c>
     </row>
     <row r="55">
@@ -1037,7 +1037,7 @@
         <v>104251</v>
       </c>
       <c r="E55" s="1">
-        <v>3.7475712637291547e-12</v>
+        <v>6.2935767708438561e-13</v>
       </c>
     </row>
     <row r="56">
@@ -1054,7 +1054,7 @@
         <v>104251</v>
       </c>
       <c r="E56" s="1">
-        <v>3.1134363750323635e-12</v>
+        <v>5.2286262342340906e-13</v>
       </c>
     </row>
     <row r="57">
@@ -1071,7 +1071,7 @@
         <v>104251</v>
       </c>
       <c r="E57" s="1">
-        <v>2.7492307475701638e-12</v>
+        <v>4.616988757456808e-13</v>
       </c>
     </row>
     <row r="58">
@@ -1088,7 +1088,7 @@
         <v>104251</v>
       </c>
       <c r="E58" s="1">
-        <v>4.7712706674474248e-08</v>
+        <v>8.012751351316183e-09</v>
       </c>
     </row>
     <row r="59">
@@ -1105,7 +1105,7 @@
         <v>104251</v>
       </c>
       <c r="E59" s="1">
-        <v>4.9644278021787613e-08</v>
+        <v>8.3371345382943218e-09</v>
       </c>
     </row>
     <row r="60">
@@ -1122,7 +1122,7 @@
         <v>104251</v>
       </c>
       <c r="E60" s="1">
-        <v>1.3413762189884437e-07</v>
+        <v>2.2526734255734482e-08</v>
       </c>
     </row>
     <row r="61">
@@ -1139,7 +1139,7 @@
         <v>104251</v>
       </c>
       <c r="E61" s="1">
-        <v>2.0200242545342917e-07</v>
+        <v>3.3923779341193949e-08</v>
       </c>
     </row>
     <row r="62">
@@ -1156,7 +1156,7 @@
         <v>104251</v>
       </c>
       <c r="E62" s="1">
-        <v>1.0886462575854239e-07</v>
+        <v>1.8282451108575515e-08</v>
       </c>
     </row>
     <row r="63">
@@ -1173,7 +1173,7 @@
         <v>104251</v>
       </c>
       <c r="E63" s="1">
-        <v>6.5037362162456702e-08</v>
+        <v>1.0922210691433065e-08</v>
       </c>
     </row>
     <row r="64">
@@ -1190,7 +1190,7 @@
         <v>104251</v>
       </c>
       <c r="E64" s="1">
-        <v>4.5898187295279058e-07</v>
+        <v>7.7080258620298991e-08</v>
       </c>
     </row>
     <row r="65">
@@ -1207,7 +1207,7 @@
         <v>104251</v>
       </c>
       <c r="E65" s="1">
-        <v>8.4164248903562111e-08</v>
+        <v>1.413433103891748e-08</v>
       </c>
     </row>
     <row r="66">
@@ -1224,7 +1224,7 @@
         <v>104251</v>
       </c>
       <c r="E66" s="1">
-        <v>9.4323766575143964e-08</v>
+        <v>1.584049513780883e-08</v>
       </c>
     </row>
     <row r="67">
@@ -1241,7 +1241,7 @@
         <v>104251</v>
       </c>
       <c r="E67" s="1">
-        <v>5.5026358580789747e-08</v>
+        <v>9.2409875307453149e-09</v>
       </c>
     </row>
     <row r="68">
@@ -1258,7 +1258,7 @@
         <v>104251</v>
       </c>
       <c r="E68" s="1">
-        <v>1.2426011153365835e-07</v>
+        <v>2.0867929606538382e-08</v>
       </c>
     </row>
     <row r="69">
@@ -1275,7 +1275,7 @@
         <v>104251</v>
       </c>
       <c r="E69" s="1">
-        <v>8.2462811690220406e-08</v>
+        <v>1.3848596935872592e-08</v>
       </c>
     </row>
     <row r="70">
@@ -1292,7 +1292,7 @@
         <v>104251</v>
       </c>
       <c r="E70" s="1">
-        <v>5.0166573117849111e-08</v>
+        <v>8.4248474863102274e-09</v>
       </c>
     </row>
     <row r="71">
@@ -1309,7 +1309,7 @@
         <v>104251</v>
       </c>
       <c r="E71" s="1">
-        <v>5.41029407941096e-08</v>
+        <v>9.085911578665673e-09</v>
       </c>
     </row>
     <row r="72">
@@ -1326,7 +1326,7 @@
         <v>104251</v>
       </c>
       <c r="E72" s="1">
-        <v>1.0520493809451636e-08</v>
+        <v>1.7667851626157471e-09</v>
       </c>
     </row>
     <row r="73">
@@ -1343,7 +1343,7 @@
         <v>104251</v>
       </c>
       <c r="E73" s="1">
-        <v>6.3078008094574756e-11</v>
+        <v>1.0593161764438364e-11</v>
       </c>
     </row>
     <row r="74">
@@ -1360,7 +1360,7 @@
         <v>104251</v>
       </c>
       <c r="E74" s="1">
-        <v>6.2490672358972432e-11</v>
+        <v>1.049452625495606e-11</v>
       </c>
     </row>
     <row r="75">
@@ -1377,7 +1377,7 @@
         <v>104251</v>
       </c>
       <c r="E75" s="1">
-        <v>5.3731019633573851e-09</v>
+        <v>9.0234519856124962e-10</v>
       </c>
     </row>
     <row r="76">
@@ -1394,7 +1394,7 @@
         <v>104251</v>
       </c>
       <c r="E76" s="1">
-        <v>1.3439720170094205e-10</v>
+        <v>2.2570327551374447e-11</v>
       </c>
     </row>
     <row r="77">
@@ -1411,7 +1411,7 @@
         <v>104251</v>
       </c>
       <c r="E77" s="1">
-        <v>3.9241293547931377e-10</v>
+        <v>6.5900833401411063e-11</v>
       </c>
     </row>
     <row r="78">
@@ -1428,7 +1428,7 @@
         <v>104251</v>
       </c>
       <c r="E78" s="1">
-        <v>9.9967567557257553e-10</v>
+        <v>1.6788301304693221e-10</v>
       </c>
     </row>
     <row r="79">
@@ -1445,7 +1445,7 @@
         <v>104251</v>
       </c>
       <c r="E79" s="1">
-        <v>1.4995137354034682e-09</v>
+        <v>2.5182453344818612e-10</v>
       </c>
     </row>
     <row r="80">
@@ -1462,7 +1462,7 @@
         <v>544681</v>
       </c>
       <c r="E80" s="1">
-        <v>8.8625000671527232e-07</v>
+        <v>3.2267831073795605e-08</v>
       </c>
     </row>
     <row r="81">
@@ -1479,7 +1479,7 @@
         <v>544681</v>
       </c>
       <c r="E81" s="1">
-        <v>1.241248952510432e-07</v>
+        <v>4.519312923889629e-09</v>
       </c>
     </row>
     <row r="82">
@@ -1496,7 +1496,7 @@
         <v>544681</v>
       </c>
       <c r="E82" s="1">
-        <v>1.1417553480441711e-07</v>
+        <v>4.1570626940767852e-09</v>
       </c>
     </row>
     <row r="83">
@@ -1513,7 +1513,7 @@
         <v>544681</v>
       </c>
       <c r="E83" s="1">
-        <v>1.3082633643080044e-07</v>
+        <v>4.7633084143683391e-09</v>
       </c>
     </row>
     <row r="84">
@@ -1530,7 +1530,7 @@
         <v>544681</v>
       </c>
       <c r="E84" s="1">
-        <v>5.9813010011566803e-07</v>
+        <v>2.1777559311431105e-08</v>
       </c>
     </row>
     <row r="85">
@@ -1547,7 +1547,7 @@
         <v>544681</v>
       </c>
       <c r="E85" s="1">
-        <v>1.0811530728460639e-06</v>
+        <v>3.9364135062669448e-08</v>
       </c>
     </row>
     <row r="86">
@@ -1564,7 +1564,7 @@
         <v>544681</v>
       </c>
       <c r="E86" s="1">
-        <v>9.2109900151626789e-07</v>
+        <v>3.3536661447897131e-08</v>
       </c>
     </row>
     <row r="87">
@@ -1581,7 +1581,7 @@
         <v>544681</v>
       </c>
       <c r="E87" s="1">
-        <v>3.7012949860582012e-07</v>
+        <v>1.3476192606276527e-08</v>
       </c>
     </row>
     <row r="88">
@@ -1598,7 +1598,7 @@
         <v>544681</v>
       </c>
       <c r="E88" s="1">
-        <v>2.2309389180463768e-07</v>
+        <v>8.1227140569239964e-09</v>
       </c>
     </row>
     <row r="89">
@@ -1615,7 +1615,7 @@
         <v>544681</v>
       </c>
       <c r="E89" s="1">
-        <v>1.3575638035945303e-07</v>
+        <v>4.9428083848113147e-09</v>
       </c>
     </row>
     <row r="90">
@@ -1632,7 +1632,7 @@
         <v>544681</v>
       </c>
       <c r="E90" s="1">
-        <v>1.4344581700242998e-07</v>
+        <v>5.2227759894662995e-09</v>
       </c>
     </row>
     <row r="91">
@@ -1649,7 +1649,7 @@
         <v>544681</v>
       </c>
       <c r="E91" s="1">
-        <v>1.5682861942423187e-07</v>
+        <v>5.7100359995843064e-09</v>
       </c>
     </row>
     <row r="92">
@@ -1666,7 +1666,7 @@
         <v>544681</v>
       </c>
       <c r="E92" s="1">
-        <v>1.4170856843520596e-07</v>
+        <v>5.1595239192181452e-09</v>
       </c>
     </row>
     <row r="93">
@@ -1683,7 +1683,7 @@
         <v>544681</v>
       </c>
       <c r="E93" s="1">
-        <v>1.4894729361003556e-07</v>
+        <v>5.4230815393907505e-09</v>
       </c>
     </row>
     <row r="94">
@@ -1700,7 +1700,7 @@
         <v>544681</v>
       </c>
       <c r="E94" s="1">
-        <v>9.3795748057345918e-08</v>
+        <v>3.4150469119254012e-09</v>
       </c>
     </row>
     <row r="95">
@@ -1717,7 +1717,7 @@
         <v>544681</v>
       </c>
       <c r="E95" s="1">
-        <v>3.7868275626351533e-08</v>
+        <v>1.3787612163085328e-09</v>
       </c>
     </row>
     <row r="96">
@@ -1734,7 +1734,7 @@
         <v>544681</v>
       </c>
       <c r="E96" s="1">
-        <v>1.9370913761918018e-08</v>
+        <v>7.0528333173669466e-10</v>
       </c>
     </row>
     <row r="97">
@@ -1751,7 +1751,7 @@
         <v>544681</v>
       </c>
       <c r="E97" s="1">
-        <v>4.9430615156609292e-09</v>
+        <v>1.7997391077440028e-10</v>
       </c>
     </row>
     <row r="98">
@@ -1768,7 +1768,7 @@
         <v>544681</v>
       </c>
       <c r="E98" s="1">
-        <v>2.5409620588168202e-11</v>
+        <v>9.2514906326057744e-13</v>
       </c>
     </row>
     <row r="99">
@@ -1785,7 +1785,7 @@
         <v>544681</v>
       </c>
       <c r="E99" s="1">
-        <v>6.6314724544991321e-11</v>
+        <v>2.4144792068470089e-12</v>
       </c>
     </row>
     <row r="100">
@@ -1802,7 +1802,7 @@
         <v>544681</v>
       </c>
       <c r="E100" s="1">
-        <v>2.3818614636184066e-08</v>
+        <v>8.6722146130924216e-10</v>
       </c>
     </row>
     <row r="101">
@@ -1819,7 +1819,7 @@
         <v>544681</v>
       </c>
       <c r="E101" s="1">
-        <v>1.201317517685041e-10</v>
+        <v>4.3739248334340175e-12</v>
       </c>
     </row>
     <row r="102">
@@ -1836,7 +1836,7 @@
         <v>544681</v>
       </c>
       <c r="E102" s="1">
-        <v>1.1864852156318051e-10</v>
+        <v>4.3199215905842525e-12</v>
       </c>
     </row>
     <row r="103">
@@ -1853,7 +1853,7 @@
         <v>544681</v>
       </c>
       <c r="E103" s="1">
-        <v>3.4642991253441835e-10</v>
+        <v>1.2613305365449801e-11</v>
       </c>
     </row>
     <row r="104">
@@ -1870,7 +1870,7 @@
         <v>544681</v>
       </c>
       <c r="E104" s="1">
-        <v>8.8253360175372109e-10</v>
+        <v>3.2132518867911131e-11</v>
       </c>
     </row>
     <row r="105">
@@ -1887,7 +1887,7 @@
         <v>544681</v>
       </c>
       <c r="E105" s="1">
-        <v>1.3238005136528841e-09</v>
+        <v>4.8198781771313648e-11</v>
       </c>
     </row>
     <row r="106">
@@ -1904,7 +1904,7 @@
         <v>26646</v>
       </c>
       <c r="E106" s="1">
-        <v>1.1147278655698756e-07</v>
+        <v>4.0586574101553197e-09</v>
       </c>
     </row>
     <row r="107">
@@ -1921,7 +1921,7 @@
         <v>26646</v>
       </c>
       <c r="E107" s="1">
-        <v>7.6531261328227629e-09</v>
+        <v>2.7864571761071488e-10</v>
       </c>
     </row>
     <row r="108">
@@ -1938,7 +1938,7 @@
         <v>26646</v>
       </c>
       <c r="E108" s="1">
-        <v>7.0396826146179592e-09</v>
+        <v>2.5631061162378899e-10</v>
       </c>
     </row>
     <row r="109">
@@ -1955,7 +1955,7 @@
         <v>26646</v>
       </c>
       <c r="E109" s="1">
-        <v>8.0663156154514581e-09</v>
+        <v>2.9368971143917122e-10</v>
       </c>
     </row>
     <row r="110">
@@ -1972,7 +1972,7 @@
         <v>26646</v>
       </c>
       <c r="E110" s="1">
-        <v>3.687870631097212e-08</v>
+        <v>1.3427315925795824e-09</v>
       </c>
     </row>
     <row r="111">
@@ -1989,7 +1989,7 @@
         <v>26646</v>
       </c>
       <c r="E111" s="1">
-        <v>6.6660291508924274e-08</v>
+        <v>2.4270609966237089e-09</v>
       </c>
     </row>
     <row r="112">
@@ -2006,7 +2006,7 @@
         <v>26646</v>
       </c>
       <c r="E112" s="1">
-        <v>5.6791890301610692e-08</v>
+        <v>2.0677586309858498e-09</v>
       </c>
     </row>
     <row r="113">
@@ -2023,7 +2023,7 @@
         <v>26646</v>
       </c>
       <c r="E113" s="1">
-        <v>2.2820950462687506e-08</v>
+        <v>8.3089707336725382e-10</v>
       </c>
     </row>
     <row r="114">
@@ -2040,7 +2040,7 @@
         <v>26646</v>
       </c>
       <c r="E114" s="1">
-        <v>7.0059407164535514e-09</v>
+        <v>2.5508209433589002e-10</v>
       </c>
     </row>
     <row r="115">
@@ -2057,7 +2057,7 @@
         <v>26646</v>
       </c>
       <c r="E115" s="1">
-        <v>5.1409517709544161e-07</v>
+        <v>1.8717896566045056e-08</v>
       </c>
     </row>
     <row r="116">
@@ -2074,7 +2074,7 @@
         <v>26646</v>
       </c>
       <c r="E116" s="1">
-        <v>5.4317672493198188e-07</v>
+        <v>1.977673846909056e-08</v>
       </c>
     </row>
     <row r="117">
@@ -2091,7 +2091,7 @@
         <v>26646</v>
       </c>
       <c r="E117" s="1">
-        <v>6.0002616919518914e-07</v>
+        <v>2.1846593867280717e-08</v>
       </c>
     </row>
     <row r="118">
@@ -2108,7 +2108,7 @@
         <v>26646</v>
       </c>
       <c r="E118" s="1">
-        <v>5.4217690603763913e-07</v>
+        <v>1.9740335588380731e-08</v>
       </c>
     </row>
     <row r="119">
@@ -2125,7 +2125,7 @@
         <v>26646</v>
       </c>
       <c r="E119" s="1">
-        <v>5.6987227026183973e-07</v>
+        <v>2.0748707640905195e-08</v>
       </c>
     </row>
     <row r="120">
@@ -2142,7 +2142,7 @@
         <v>26646</v>
       </c>
       <c r="E120" s="1">
-        <v>3.5886247928829107e-07</v>
+        <v>1.3065967863212791e-08</v>
       </c>
     </row>
     <row r="121">
@@ -2159,7 +2159,7 @@
         <v>26646</v>
       </c>
       <c r="E121" s="1">
-        <v>1.4488399813217256e-07</v>
+        <v>5.2751394363781401e-09</v>
       </c>
     </row>
     <row r="122">
@@ -2176,7 +2176,7 @@
         <v>26646</v>
       </c>
       <c r="E122" s="1">
-        <v>7.4113103210038389e-08</v>
+        <v>2.6984134926522074e-09</v>
       </c>
     </row>
     <row r="123">
@@ -2193,7 +2193,7 @@
         <v>26646</v>
       </c>
       <c r="E123" s="1">
-        <v>1.891215184457451e-08</v>
+        <v>6.8858008184236041e-10</v>
       </c>
     </row>
     <row r="124">
@@ -2210,7 +2210,7 @@
         <v>26646</v>
       </c>
       <c r="E124" s="1">
-        <v>5.1940768353020417e-10</v>
+        <v>1.8911322161030419e-11</v>
       </c>
     </row>
     <row r="125">
@@ -2227,7 +2227,7 @@
         <v>26646</v>
       </c>
       <c r="E125" s="1">
-        <v>2.5372007272927988e-10</v>
+        <v>9.2377962918055445e-12</v>
       </c>
     </row>
     <row r="126">
@@ -2244,7 +2244,7 @@
         <v>26646</v>
       </c>
       <c r="E126" s="1">
-        <v>9.1130011981022108e-08</v>
+        <v>3.3179889946666208e-09</v>
       </c>
     </row>
     <row r="127">
@@ -2261,7 +2261,7 @@
         <v>26646</v>
       </c>
       <c r="E127" s="1">
-        <v>2.4556585653812135e-09</v>
+        <v>8.9409056547307131e-11</v>
       </c>
     </row>
     <row r="128">
@@ -2278,7 +2278,7 @@
         <v>26646</v>
       </c>
       <c r="E128" s="1">
-        <v>2.4253394848017251e-09</v>
+        <v>8.8305154855028434e-11</v>
       </c>
     </row>
     <row r="129">
@@ -2295,7 +2295,7 @@
         <v>26646</v>
       </c>
       <c r="E129" s="1">
-        <v>7.0815056041340085e-09</v>
+        <v>2.5783336576878924e-10</v>
       </c>
     </row>
     <row r="130">
@@ -2312,7 +2312,7 @@
         <v>26646</v>
       </c>
       <c r="E130" s="1">
-        <v>1.8040203997315984e-08</v>
+        <v>6.5683303240859914e-10</v>
       </c>
     </row>
     <row r="131">
@@ -2329,7 +2329,7 @@
         <v>26646</v>
       </c>
       <c r="E131" s="1">
-        <v>2.7060307772330816e-08</v>
+        <v>9.8524954861289871e-10</v>
       </c>
     </row>
     <row r="132">
@@ -2346,7 +2346,7 @@
         <v>4579196</v>
       </c>
       <c r="E132" s="1">
-        <v>1.0986700438309072e-08</v>
+        <v>2.0063100070188966e-09</v>
       </c>
     </row>
     <row r="133">
@@ -2363,7 +2363,7 @@
         <v>4579196</v>
       </c>
       <c r="E133" s="1">
-        <v>6.0536553547763106e-10</v>
+        <v>1.1054736986926272e-10</v>
       </c>
     </row>
     <row r="134">
@@ -2380,7 +2380,7 @@
         <v>4579196</v>
       </c>
       <c r="E134" s="1">
-        <v>1.0058605059981574e-09</v>
+        <v>1.8368280507718993e-10</v>
       </c>
     </row>
     <row r="135">
@@ -2397,7 +2397,7 @@
         <v>4579196</v>
       </c>
       <c r="E135" s="1">
-        <v>3.3307359093015521e-09</v>
+        <v>6.0823435177326246e-10</v>
       </c>
     </row>
     <row r="136">
@@ -2414,7 +2414,7 @@
         <v>4579196</v>
       </c>
       <c r="E136" s="1">
-        <v>4.8506279881621595e-08</v>
+        <v>8.8578575585529506e-09</v>
       </c>
     </row>
     <row r="137">
@@ -2431,7 +2431,7 @@
         <v>4579196</v>
       </c>
       <c r="E137" s="1">
-        <v>1.1583061620967783e-07</v>
+        <v>2.1152128937274028e-08</v>
       </c>
     </row>
     <row r="138">
@@ -2448,7 +2448,7 @@
         <v>4579196</v>
       </c>
       <c r="E138" s="1">
-        <v>2.9347168606363994e-07</v>
+        <v>5.3591627136029274e-08</v>
       </c>
     </row>
     <row r="139">
@@ -2465,7 +2465,7 @@
         <v>4579196</v>
       </c>
       <c r="E139" s="1">
-        <v>2.2467752103239036e-07</v>
+        <v>4.1028947350696399e-08</v>
       </c>
     </row>
     <row r="140">
@@ -2482,7 +2482,7 @@
         <v>4579196</v>
       </c>
       <c r="E140" s="1">
-        <v>2.1160833796329825e-07</v>
+        <v>3.8642347988115944e-08</v>
       </c>
     </row>
     <row r="141">
@@ -2499,7 +2499,7 @@
         <v>4579196</v>
       </c>
       <c r="E141" s="1">
-        <v>1.1999544824448094e-07</v>
+        <v>2.1912681447133764e-08</v>
       </c>
     </row>
     <row r="142">
@@ -2516,7 +2516,7 @@
         <v>4579196</v>
       </c>
       <c r="E142" s="1">
-        <v>2.4302863721459289e-07</v>
+        <v>4.4380094266216474e-08</v>
       </c>
     </row>
     <row r="143">
@@ -2533,7 +2533,7 @@
         <v>4579196</v>
       </c>
       <c r="E143" s="1">
-        <v>2.2622354833856662e-07</v>
+        <v>4.1311270848609638e-08</v>
       </c>
     </row>
     <row r="144">
@@ -2550,7 +2550,7 @@
         <v>4579196</v>
       </c>
       <c r="E144" s="1">
-        <v>1.2257983428298758e-07</v>
+        <v>2.2384622155868783e-08</v>
       </c>
     </row>
     <row r="145">
@@ -2567,7 +2567,7 @@
         <v>4579196</v>
       </c>
       <c r="E145" s="1">
-        <v>5.1081830321209054e-08</v>
+        <v>9.3281853352777944e-09</v>
       </c>
     </row>
     <row r="146">
@@ -2584,7 +2584,7 @@
         <v>4579196</v>
       </c>
       <c r="E146" s="1">
-        <v>3.6613258203033183e-08</v>
+        <v>6.6860419423164785e-09</v>
       </c>
     </row>
     <row r="147">
@@ -2601,7 +2601,7 @@
         <v>4579196</v>
       </c>
       <c r="E147" s="1">
-        <v>4.1328458877387675e-08</v>
+        <v>7.5470971694358013e-09</v>
       </c>
     </row>
     <row r="148">
@@ -2618,7 +2618,7 @@
         <v>4579196</v>
       </c>
       <c r="E148" s="1">
-        <v>1.9900346259760227e-08</v>
+        <v>3.6340539466550581e-09</v>
       </c>
     </row>
     <row r="149">
@@ -2635,7 +2635,7 @@
         <v>4579196</v>
       </c>
       <c r="E149" s="1">
-        <v>9.6428109941371076e-09</v>
+        <v>1.760898871161487e-09</v>
       </c>
     </row>
     <row r="150">
@@ -2652,7 +2652,7 @@
         <v>4579196</v>
       </c>
       <c r="E150" s="1">
-        <v>1.6993798368503121e-08</v>
+        <v>3.1032816316667322e-09</v>
       </c>
     </row>
     <row r="151">
@@ -2669,7 +2669,7 @@
         <v>4579196</v>
       </c>
       <c r="E151" s="1">
-        <v>3.2319761089638632e-08</v>
+        <v>5.9019953368988354e-09</v>
       </c>
     </row>
     <row r="152">
@@ -2686,7 +2686,7 @@
         <v>4579196</v>
       </c>
       <c r="E152" s="1">
-        <v>6.5276131167024687e-09</v>
+        <v>1.1920243681018405e-09</v>
       </c>
     </row>
     <row r="153">
@@ -2703,7 +2703,7 @@
         <v>4579196</v>
       </c>
       <c r="E153" s="1">
-        <v>7.6030420848027802e-10</v>
+        <v>1.3884113303497259e-10</v>
       </c>
     </row>
     <row r="154">
@@ -2720,7 +2720,7 @@
         <v>4579196</v>
       </c>
       <c r="E154" s="1">
-        <v>2.8138316329751056e-12</v>
+        <v>5.1384113977648305e-13</v>
       </c>
     </row>
     <row r="155">
@@ -2737,7 +2737,7 @@
         <v>4579196</v>
       </c>
       <c r="E155" s="1">
-        <v>1.0961834995271147e-08</v>
+        <v>2.0017691948481797e-09</v>
       </c>
     </row>
     <row r="156">
@@ -2754,7 +2754,7 @@
         <v>4579196</v>
       </c>
       <c r="E156" s="1">
-        <v>2.9530184519899194e-08</v>
+        <v>5.3925837129042975e-09</v>
       </c>
     </row>
     <row r="157">
@@ -2771,7 +2771,7 @@
         <v>4579196</v>
       </c>
       <c r="E157" s="1">
-        <v>4.429528033256247e-08</v>
+        <v>8.088876235490261e-09</v>
       </c>
     </row>
     <row r="158">
@@ -2788,7 +2788,7 @@
         <v>3474730</v>
       </c>
       <c r="E158" s="1">
-        <v>5.0761301828572414e-09</v>
+        <v>8.5247248149400434e-10</v>
       </c>
     </row>
     <row r="159">
@@ -2805,7 +2805,7 @@
         <v>3474730</v>
       </c>
       <c r="E159" s="1">
-        <v>1.9046280108625524e-09</v>
+        <v>3.1985841753012778e-10</v>
       </c>
     </row>
     <row r="160">
@@ -2822,7 +2822,7 @@
         <v>3474730</v>
       </c>
       <c r="E160" s="1">
-        <v>2.2856045944763537e-09</v>
+        <v>3.8383865530455807e-10</v>
       </c>
     </row>
     <row r="161">
@@ -2839,7 +2839,7 @@
         <v>3474730</v>
       </c>
       <c r="E161" s="1">
-        <v>3.2602300858997069e-09</v>
+        <v>5.4751481126658064e-10</v>
       </c>
     </row>
     <row r="162">
@@ -2856,7 +2856,7 @@
         <v>3474730</v>
       </c>
       <c r="E162" s="1">
-        <v>2.8162430609768307e-08</v>
+        <v>4.7295274363534645e-09</v>
       </c>
     </row>
     <row r="163">
@@ -2873,7 +2873,7 @@
         <v>3474730</v>
       </c>
       <c r="E163" s="1">
-        <v>1.0198683497719685e-07</v>
+        <v>1.712741060089229e-08</v>
       </c>
     </row>
     <row r="164">
@@ -2890,7 +2890,7 @@
         <v>3474730</v>
       </c>
       <c r="E164" s="1">
-        <v>2.3496980361414899e-07</v>
+        <v>3.9460235967681001e-08</v>
       </c>
     </row>
     <row r="165">
@@ -2907,7 +2907,7 @@
         <v>3474730</v>
       </c>
       <c r="E165" s="1">
-        <v>2.4291981048918387e-07</v>
+        <v>4.0795338662746872e-08</v>
       </c>
     </row>
     <row r="166">
@@ -2924,7 +2924,7 @@
         <v>3474730</v>
       </c>
       <c r="E166" s="1">
-        <v>2.1788672199818393e-07</v>
+        <v>3.6591345065062342e-08</v>
       </c>
     </row>
     <row r="167">
@@ -2941,7 +2941,7 @@
         <v>3474730</v>
       </c>
       <c r="E167" s="1">
-        <v>1.3384186559051159e-07</v>
+        <v>2.2477063765791172e-08</v>
       </c>
     </row>
     <row r="168">
@@ -2958,7 +2958,7 @@
         <v>3474730</v>
       </c>
       <c r="E168" s="1">
-        <v>2.2090603124524932e-07</v>
+        <v>3.7098402572155464e-08</v>
       </c>
     </row>
     <row r="169">
@@ -2975,7 +2975,7 @@
         <v>3474730</v>
       </c>
       <c r="E169" s="1">
-        <v>1.5365486660812167e-07</v>
+        <v>2.5804411052376963e-08</v>
       </c>
     </row>
     <row r="170">
@@ -2992,7 +2992,7 @@
         <v>3474730</v>
       </c>
       <c r="E170" s="1">
-        <v>1.4759510236217466e-07</v>
+        <v>2.4786748653582436e-08</v>
       </c>
     </row>
     <row r="171">
@@ -3009,7 +3009,7 @@
         <v>3474730</v>
       </c>
       <c r="E171" s="1">
-        <v>5.4210101296803259e-08</v>
+        <v>9.1039069616272172e-09</v>
       </c>
     </row>
     <row r="172">
@@ -3026,7 +3026,7 @@
         <v>3474730</v>
       </c>
       <c r="E172" s="1">
-        <v>3.8500502341776155e-08</v>
+        <v>6.4656768827831002e-09</v>
       </c>
     </row>
     <row r="173">
@@ -3043,7 +3043,7 @@
         <v>3474730</v>
       </c>
       <c r="E173" s="1">
-        <v>7.4874563438243058e-08</v>
+        <v>1.2574244756535791e-08</v>
       </c>
     </row>
     <row r="174">
@@ -3060,7 +3060,7 @@
         <v>3474730</v>
       </c>
       <c r="E174" s="1">
-        <v>4.0353448582663987e-08</v>
+        <v>6.7768559652847671e-09</v>
       </c>
     </row>
     <row r="175">
@@ -3077,7 +3077,7 @@
         <v>3474730</v>
       </c>
       <c r="E175" s="1">
-        <v>4.094153993605687e-08</v>
+        <v>6.8756187410201619e-09</v>
       </c>
     </row>
     <row r="176">
@@ -3094,7 +3094,7 @@
         <v>3474730</v>
       </c>
       <c r="E176" s="1">
-        <v>2.2426959844779049e-08</v>
+        <v>3.7663272500765288e-09</v>
       </c>
     </row>
     <row r="177">
@@ -3111,7 +3111,7 @@
         <v>3474730</v>
       </c>
       <c r="E177" s="1">
-        <v>4.6240042905765222e-08</v>
+        <v>7.7654362939938437e-09</v>
       </c>
     </row>
     <row r="178">
@@ -3128,7 +3128,7 @@
         <v>3474730</v>
       </c>
       <c r="E178" s="1">
-        <v>3.193674302792715e-08</v>
+        <v>5.3633759655724589e-09</v>
       </c>
     </row>
     <row r="179">
@@ -3145,7 +3145,7 @@
         <v>3474730</v>
       </c>
       <c r="E179" s="1">
-        <v>3.4998635101146647e-08</v>
+        <v>5.8775824207657479e-09</v>
       </c>
     </row>
     <row r="180">
@@ -3162,7 +3162,7 @@
         <v>3474730</v>
       </c>
       <c r="E180" s="1">
-        <v>1.7847781919044792e-08</v>
+        <v>2.9973112880554709e-09</v>
       </c>
     </row>
     <row r="181">
@@ -3179,7 +3179,7 @@
         <v>3474730</v>
       </c>
       <c r="E181" s="1">
-        <v>1.7442088662278366e-08</v>
+        <v>2.9291804537479038e-09</v>
       </c>
     </row>
     <row r="182">
@@ -3196,7 +3196,7 @@
         <v>3474730</v>
       </c>
       <c r="E182" s="1">
-        <v>9.5446807790722232e-08</v>
+        <v>1.6029096272518473e-08</v>
       </c>
     </row>
     <row r="183">
@@ -3213,7 +3213,7 @@
         <v>3474730</v>
       </c>
       <c r="E183" s="1">
-        <v>5.2616890400258853e-08</v>
+        <v>8.836347653584653e-09</v>
       </c>
     </row>
     <row r="184">
@@ -3230,7 +3230,7 @@
         <v>472523</v>
       </c>
       <c r="E184" s="1">
-        <v>1.0148583362568075e-11</v>
+        <v>1.704327434390307e-12</v>
       </c>
     </row>
     <row r="185">
@@ -3247,7 +3247,7 @@
         <v>472523</v>
       </c>
       <c r="E185" s="1">
-        <v>8.2681279357788018e-13</v>
+        <v>1.3885285065837194e-13</v>
       </c>
     </row>
     <row r="186">
@@ -3264,7 +3264,7 @@
         <v>472523</v>
       </c>
       <c r="E186" s="1">
-        <v>1.7253517503590388e-09</v>
+        <v>2.8975122301488909e-10</v>
       </c>
     </row>
     <row r="187">
@@ -3281,7 +3281,7 @@
         <v>472523</v>
       </c>
       <c r="E187" s="1">
-        <v>4.5705670359552641e-09</v>
+        <v>7.6756945244227381e-10</v>
       </c>
     </row>
     <row r="188">
@@ -3298,7 +3298,7 @@
         <v>472523</v>
       </c>
       <c r="E188" s="1">
-        <v>1.0380073689475466e-08</v>
+        <v>1.743203359438894e-09</v>
       </c>
     </row>
     <row r="189">
@@ -3315,7 +3315,7 @@
         <v>472523</v>
       </c>
       <c r="E189" s="1">
-        <v>3.7801029861839197e-08</v>
+        <v>6.3482095136180305e-09</v>
       </c>
     </row>
     <row r="190">
@@ -3332,7 +3332,7 @@
         <v>472523</v>
       </c>
       <c r="E190" s="1">
-        <v>1.5112375706394232e-07</v>
+        <v>2.5379343071563198e-08</v>
       </c>
     </row>
     <row r="191">
@@ -3349,7 +3349,7 @@
         <v>472523</v>
       </c>
       <c r="E191" s="1">
-        <v>1.5051391244469414e-07</v>
+        <v>2.5276925441630738e-08</v>
       </c>
     </row>
     <row r="192">
@@ -3366,7 +3366,7 @@
         <v>472523</v>
       </c>
       <c r="E192" s="1">
-        <v>1.2037165220135648e-07</v>
+        <v>2.021491063430858e-08</v>
       </c>
     </row>
     <row r="193">
@@ -3383,7 +3383,7 @@
         <v>472523</v>
       </c>
       <c r="E193" s="1">
-        <v>1.1202507721463917e-07</v>
+        <v>1.8813208768619916e-08</v>
       </c>
     </row>
     <row r="194">
@@ -3400,7 +3400,7 @@
         <v>472523</v>
       </c>
       <c r="E194" s="1">
-        <v>2.3890839884188608e-07</v>
+        <v>4.0121673094972721e-08</v>
       </c>
     </row>
     <row r="195">
@@ -3417,7 +3417,7 @@
         <v>472523</v>
       </c>
       <c r="E195" s="1">
-        <v>2.7406861136114458e-07</v>
+        <v>4.6026389810549517e-08</v>
       </c>
     </row>
     <row r="196">
@@ -3434,7 +3434,7 @@
         <v>472523</v>
       </c>
       <c r="E196" s="1">
-        <v>2.0289250812766113e-07</v>
+        <v>3.4073256216515801e-08</v>
       </c>
     </row>
     <row r="197">
@@ -3451,7 +3451,7 @@
         <v>472523</v>
       </c>
       <c r="E197" s="1">
-        <v>1.1452232939745954e-07</v>
+        <v>1.923259063119076e-08</v>
       </c>
     </row>
     <row r="198">
@@ -3468,7 +3468,7 @@
         <v>472523</v>
       </c>
       <c r="E198" s="1">
-        <v>1.6287613391341438e-07</v>
+        <v>2.7353006970542992e-08</v>
       </c>
     </row>
     <row r="199">
@@ -3485,7 +3485,7 @@
         <v>472523</v>
       </c>
       <c r="E199" s="1">
-        <v>2.6480549308871559e-07</v>
+        <v>4.4470763072013142e-08</v>
       </c>
     </row>
     <row r="200">
@@ -3502,7 +3502,7 @@
         <v>472523</v>
       </c>
       <c r="E200" s="1">
-        <v>5.598488783675748e-08</v>
+        <v>9.4019609875317656e-09</v>
       </c>
     </row>
     <row r="201">
@@ -3519,7 +3519,7 @@
         <v>472523</v>
       </c>
       <c r="E201" s="1">
-        <v>5.8912032585567431e-08</v>
+        <v>9.8935384329479348e-09</v>
       </c>
     </row>
     <row r="202">
@@ -3536,7 +3536,7 @@
         <v>472523</v>
       </c>
       <c r="E202" s="1">
-        <v>7.7546516763504769e-08</v>
+        <v>1.3022966705023009e-08</v>
       </c>
     </row>
     <row r="203">
@@ -3553,7 +3553,7 @@
         <v>472523</v>
       </c>
       <c r="E203" s="1">
-        <v>2.9478352203682334e-08</v>
+        <v>4.950519993940361e-09</v>
       </c>
     </row>
     <row r="204">
@@ -3570,7 +3570,7 @@
         <v>472523</v>
       </c>
       <c r="E204" s="1">
-        <v>3.9432599407973612e-08</v>
+        <v>6.6222112238278896e-09</v>
       </c>
     </row>
     <row r="205">
@@ -3587,7 +3587,7 @@
         <v>472523</v>
       </c>
       <c r="E205" s="1">
-        <v>2.3108397328996944e-07</v>
+        <v>3.880765930830421e-08</v>
       </c>
     </row>
     <row r="206">
@@ -3604,7 +3604,7 @@
         <v>472523</v>
       </c>
       <c r="E206" s="1">
-        <v>1.1781792430554106e-08</v>
+        <v>1.9786043914393758e-09</v>
       </c>
     </row>
     <row r="207">
@@ -3621,7 +3621,7 @@
         <v>472523</v>
       </c>
       <c r="E207" s="1">
-        <v>2.4735280135246285e-07</v>
+        <v>4.1539806261425838e-08</v>
       </c>
     </row>
     <row r="208">
@@ -3638,7 +3638,7 @@
         <v>472523</v>
       </c>
       <c r="E208" s="1">
-        <v>2.5875026565813641e-09</v>
+        <v>4.3453865505860279e-10</v>
       </c>
     </row>
     <row r="209">
@@ -3655,7 +3655,7 @@
         <v>472523</v>
       </c>
       <c r="E209" s="1">
-        <v>3.3083213946127898e-10</v>
+        <v>5.5559116335368586e-11</v>
       </c>
     </row>
     <row r="210">
@@ -3672,7 +3672,7 @@
         <v>785624</v>
       </c>
       <c r="E210" s="1">
-        <v>1.3725472172154696e-06</v>
+        <v>4.9973621685239777e-08</v>
       </c>
     </row>
     <row r="211">
@@ -3689,7 +3689,7 @@
         <v>785624</v>
       </c>
       <c r="E211" s="1">
-        <v>1.9163073261552199e-07</v>
+        <v>6.9771601829415886e-09</v>
       </c>
     </row>
     <row r="212">
@@ -3706,7 +3706,7 @@
         <v>785624</v>
       </c>
       <c r="E212" s="1">
-        <v>1.7627039028411673e-07</v>
+        <v>6.4178991010521713e-09</v>
       </c>
     </row>
     <row r="213">
@@ -3723,7 +3723,7 @@
         <v>785624</v>
       </c>
       <c r="E213" s="1">
-        <v>2.0197680328237766e-07</v>
+        <v>7.3538544143048057e-09</v>
       </c>
     </row>
     <row r="214">
@@ -3740,7 +3740,7 @@
         <v>785624</v>
       </c>
       <c r="E214" s="1">
-        <v>9.2342571633707848e-07</v>
+        <v>3.3621375905568129e-08</v>
       </c>
     </row>
     <row r="215">
@@ -3757,7 +3757,7 @@
         <v>785624</v>
       </c>
       <c r="E215" s="1">
-        <v>1.6691428754711524e-06</v>
+        <v>6.0772492815885926e-08</v>
       </c>
     </row>
     <row r="216">
@@ -3774,7 +3774,7 @@
         <v>785624</v>
       </c>
       <c r="E216" s="1">
-        <v>1.4220426010069787e-06</v>
+        <v>5.1775717935242938e-08</v>
       </c>
     </row>
     <row r="217">
@@ -3791,7 +3791,7 @@
         <v>785624</v>
       </c>
       <c r="E217" s="1">
-        <v>5.7142602827298106e-07</v>
+        <v>2.0805277500812736e-08</v>
       </c>
     </row>
     <row r="218">
@@ -3808,7 +3808,7 @@
         <v>785624</v>
       </c>
       <c r="E218" s="1">
-        <v>3.4442444984961185e-07</v>
+        <v>1.2540287919193815e-08</v>
       </c>
     </row>
     <row r="219">
@@ -3825,7 +3825,7 @@
         <v>785624</v>
       </c>
       <c r="E219" s="1">
-        <v>2.0958808022442099e-07</v>
+        <v>7.6309758512138615e-09</v>
       </c>
     </row>
     <row r="220">
@@ -3842,7 +3842,7 @@
         <v>785624</v>
       </c>
       <c r="E220" s="1">
-        <v>2.2085718853759317e-07</v>
+        <v>8.0412778658001116e-09</v>
       </c>
     </row>
     <row r="221">
@@ -3859,7 +3859,7 @@
         <v>785624</v>
       </c>
       <c r="E221" s="1">
-        <v>3.4062637155329867e-07</v>
+        <v>1.2402002091960185e-08</v>
       </c>
     </row>
     <row r="222">
@@ -3876,7 +3876,7 @@
         <v>785624</v>
       </c>
       <c r="E222" s="1">
-        <v>3.0778610948800633e-07</v>
+        <v>1.1206307881650446e-08</v>
       </c>
     </row>
     <row r="223">
@@ -3893,7 +3893,7 @@
         <v>785624</v>
       </c>
       <c r="E223" s="1">
-        <v>3.2350840228900779e-07</v>
+        <v>1.1778746866752954e-08</v>
       </c>
     </row>
     <row r="224">
@@ -3910,7 +3910,7 @@
         <v>785624</v>
       </c>
       <c r="E224" s="1">
-        <v>2.0372112885524984e-07</v>
+        <v>7.417364056294673e-09</v>
       </c>
     </row>
     <row r="225">
@@ -3927,7 +3927,7 @@
         <v>785624</v>
       </c>
       <c r="E225" s="1">
-        <v>8.2248597266243451e-08</v>
+        <v>2.9946218838006189e-09</v>
       </c>
     </row>
     <row r="226">
@@ -3944,7 +3944,7 @@
         <v>785624</v>
       </c>
       <c r="E226" s="1">
-        <v>4.2072954897776071e-08</v>
+        <v>1.5318510904194227e-09</v>
       </c>
     </row>
     <row r="227">
@@ -3961,7 +3961,7 @@
         <v>785624</v>
       </c>
       <c r="E227" s="1">
-        <v>1.0736160405144801e-08</v>
+        <v>3.9089714798379305e-10</v>
       </c>
     </row>
     <row r="228">
@@ -3978,7 +3978,7 @@
         <v>785624</v>
       </c>
       <c r="E228" s="1">
-        <v>1.761674486844278e-11</v>
+        <v>6.4141508944459691e-13</v>
       </c>
     </row>
     <row r="229">
@@ -3995,7 +3995,7 @@
         <v>785624</v>
       </c>
       <c r="E229" s="1">
-        <v>1.4403329917644925e-10</v>
+        <v>5.2441657787116736e-12</v>
       </c>
     </row>
     <row r="230">
@@ -4012,7 +4012,7 @@
         <v>785624</v>
       </c>
       <c r="E230" s="1">
-        <v>5.173320971607609e-08</v>
+        <v>1.8835750736911905e-09</v>
       </c>
     </row>
     <row r="231">
@@ -4029,7 +4029,7 @@
         <v>785624</v>
       </c>
       <c r="E231" s="1">
-        <v>8.3288542729320625e-11</v>
+        <v>3.0324859377067748e-12</v>
       </c>
     </row>
     <row r="232">
@@ -4046,7 +4046,7 @@
         <v>785624</v>
       </c>
       <c r="E232" s="1">
-        <v>8.2260212530549381e-11</v>
+        <v>2.9950449672438983e-12</v>
       </c>
     </row>
     <row r="233">
@@ -4063,7 +4063,7 @@
         <v>785624</v>
       </c>
       <c r="E233" s="1">
-        <v>2.4018334543463027e-10</v>
+        <v>8.744930994619704e-12</v>
       </c>
     </row>
     <row r="234">
@@ -4080,7 +4080,7 @@
         <v>785624</v>
       </c>
       <c r="E234" s="1">
-        <v>6.1186938848933892e-10</v>
+        <v>2.2277797662173526e-11</v>
       </c>
     </row>
     <row r="235">
@@ -4097,7 +4097,7 @@
         <v>785624</v>
       </c>
       <c r="E235" s="1">
-        <v>9.1780416600073522e-10</v>
+        <v>3.3416699962707241e-11</v>
       </c>
     </row>
   </sheetData>

--- a/rec_selectivity_by_state_cdf_star_raw_18_19_lb.xlsx
+++ b/rec_selectivity_by_state_cdf_star_raw_18_19_lb.xlsx
@@ -133,10 +133,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>413071</v>
+        <v>364647.15625</v>
       </c>
       <c r="E2" s="1">
-        <v>1.9496260075108074e-12</v>
+        <v>3.0674018013099325e-12</v>
       </c>
     </row>
     <row r="3">
@@ -150,10 +150,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>413071</v>
+        <v>364647.15625</v>
       </c>
       <c r="E3" s="1">
-        <v>1.5883750207040109e-13</v>
+        <v>2.4990355921780671e-13</v>
       </c>
     </row>
     <row r="4">
@@ -167,10 +167,10 @@
         <v>6131.03759765625</v>
       </c>
       <c r="D4" s="2">
-        <v>413071</v>
+        <v>364647.15625</v>
       </c>
       <c r="E4" s="1">
-        <v>8.0905326882430018e-10</v>
+        <v>1.2729064469141349e-09</v>
       </c>
     </row>
     <row r="5">
@@ -184,10 +184,10 @@
         <v>7882.76220703125</v>
       </c>
       <c r="D5" s="2">
-        <v>413071</v>
+        <v>364647.15625</v>
       </c>
       <c r="E5" s="1">
-        <v>9.1852875305775683e-10</v>
+        <v>1.4451474461552039e-09</v>
       </c>
     </row>
     <row r="6">
@@ -201,10 +201,10 @@
         <v>17517.251953125</v>
       </c>
       <c r="D6" s="2">
-        <v>413071</v>
+        <v>364647.15625</v>
       </c>
       <c r="E6" s="1">
-        <v>5.2151061247229791e-09</v>
+        <v>8.205074841782789e-09</v>
       </c>
     </row>
     <row r="7">
@@ -218,10 +218,10 @@
         <v>13137.9365234375</v>
       </c>
       <c r="D7" s="2">
-        <v>413071</v>
+        <v>364647.15625</v>
       </c>
       <c r="E7" s="1">
-        <v>4.0696725989164406e-09</v>
+        <v>6.4029315183233848e-09</v>
       </c>
     </row>
     <row r="8">
@@ -235,10 +235,10 @@
         <v>43793.125</v>
       </c>
       <c r="D8" s="2">
-        <v>413071</v>
+        <v>364647.15625</v>
       </c>
       <c r="E8" s="1">
-        <v>1.8326927531120418e-08</v>
+        <v>2.8834277188138913e-08</v>
       </c>
     </row>
     <row r="9">
@@ -252,10 +252,10 @@
         <v>110386.90625</v>
       </c>
       <c r="D9" s="2">
-        <v>413071</v>
+        <v>364647.15625</v>
       </c>
       <c r="E9" s="1">
-        <v>3.4340235544050302e-08</v>
+        <v>5.4028472362688262e-08</v>
       </c>
     </row>
     <row r="10">
@@ -269,10 +269,10 @@
         <v>114432.0546875</v>
       </c>
       <c r="D10" s="2">
-        <v>413071</v>
+        <v>364647.15625</v>
       </c>
       <c r="E10" s="1">
-        <v>2.6498158334220534e-08</v>
+        <v>4.1690306318287185e-08</v>
       </c>
     </row>
     <row r="11">
@@ -286,10 +286,10 @@
         <v>113704.125</v>
       </c>
       <c r="D11" s="2">
-        <v>413071</v>
+        <v>364647.15625</v>
       </c>
       <c r="E11" s="1">
-        <v>1.5160628308308333e-08</v>
+        <v>2.3852647856870135e-08</v>
       </c>
     </row>
     <row r="12">
@@ -303,10 +303,10 @@
         <v>157926.671875</v>
       </c>
       <c r="D12" s="2">
-        <v>413071</v>
+        <v>364647.15625</v>
       </c>
       <c r="E12" s="1">
-        <v>4.3058392407147039e-08</v>
+        <v>6.7744991838480928e-08</v>
       </c>
     </row>
     <row r="13">
@@ -320,10 +320,10 @@
         <v>163957.421875</v>
       </c>
       <c r="D13" s="2">
-        <v>413071</v>
+        <v>364647.15625</v>
       </c>
       <c r="E13" s="1">
-        <v>4.9054996509312332e-08</v>
+        <v>7.7179620916467684e-08</v>
       </c>
     </row>
     <row r="14">
@@ -337,10 +337,10 @@
         <v>133736.515625</v>
       </c>
       <c r="D14" s="2">
-        <v>413071</v>
+        <v>364647.15625</v>
       </c>
       <c r="E14" s="1">
-        <v>7.0152502473774803e-08</v>
+        <v>1.1037292324544978e-07</v>
       </c>
     </row>
     <row r="15">
@@ -354,10 +354,10 @@
         <v>34736.2421875</v>
       </c>
       <c r="D15" s="2">
-        <v>413071</v>
+        <v>364647.15625</v>
       </c>
       <c r="E15" s="1">
-        <v>1.9030478526360639e-08</v>
+        <v>2.9941190859972266e-08</v>
       </c>
     </row>
     <row r="16">
@@ -371,10 +371,10 @@
         <v>14853.830078125</v>
       </c>
       <c r="D16" s="2">
-        <v>413071</v>
+        <v>364647.15625</v>
       </c>
       <c r="E16" s="1">
-        <v>9.9304831024937812e-09</v>
+        <v>1.5623911053808115e-08</v>
       </c>
     </row>
     <row r="17">
@@ -388,10 +388,10 @@
         <v>12124.0791015625</v>
       </c>
       <c r="D17" s="2">
-        <v>413071</v>
+        <v>364647.15625</v>
       </c>
       <c r="E17" s="1">
-        <v>1.5140502185317928e-08</v>
+        <v>2.3820980743494147e-08</v>
       </c>
     </row>
     <row r="18">
@@ -405,10 +405,10 @@
         <v>7101.560546875</v>
       </c>
       <c r="D18" s="2">
-        <v>413071</v>
+        <v>364647.15625</v>
       </c>
       <c r="E18" s="1">
-        <v>6.3395302341007209e-09</v>
+        <v>9.9741628289962136e-09</v>
       </c>
     </row>
     <row r="19">
@@ -422,10 +422,10 @@
         <v>4076.0068359375</v>
       </c>
       <c r="D19" s="2">
-        <v>413071</v>
+        <v>364647.15625</v>
       </c>
       <c r="E19" s="1">
-        <v>5.1229984698863973e-09</v>
+        <v>8.0601587626460969e-09</v>
       </c>
     </row>
     <row r="20">
@@ -439,10 +439,10 @@
         <v>2635.935546875</v>
       </c>
       <c r="D20" s="2">
-        <v>413071</v>
+        <v>364647.15625</v>
       </c>
       <c r="E20" s="1">
-        <v>3.2156146634321203e-09</v>
+        <v>5.0592179334785214e-09</v>
       </c>
     </row>
     <row r="21">
@@ -456,10 +456,10 @@
         <v>450.45062255859375</v>
       </c>
       <c r="D21" s="2">
-        <v>413071</v>
+        <v>364647.15625</v>
       </c>
       <c r="E21" s="1">
-        <v>1.2042823405167269e-09</v>
+        <v>1.8947314828210438e-09</v>
       </c>
     </row>
     <row r="22">
@@ -473,10 +473,10 @@
         <v>107.87335205078125</v>
       </c>
       <c r="D22" s="2">
-        <v>413071</v>
+        <v>364647.15625</v>
       </c>
       <c r="E22" s="1">
-        <v>2.8571464638638133e-10</v>
+        <v>4.4952297439948552e-10</v>
       </c>
     </row>
     <row r="23">
@@ -490,10 +490,10 @@
         <v>243.92340087890625</v>
       </c>
       <c r="D23" s="2">
-        <v>413071</v>
+        <v>364647.15625</v>
       </c>
       <c r="E23" s="1">
-        <v>1.4068322062854577e-09</v>
+        <v>2.213409011631029e-09</v>
       </c>
     </row>
     <row r="24">
@@ -507,10 +507,10 @@
         <v>389.68942260742188</v>
       </c>
       <c r="D24" s="2">
-        <v>413071</v>
+        <v>364647.15625</v>
       </c>
       <c r="E24" s="1">
-        <v>2.2197905735765744e-09</v>
+        <v>3.4924594327634395e-09</v>
       </c>
     </row>
     <row r="25">
@@ -524,10 +524,10 @@
         <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>413071</v>
+        <v>364647.15625</v>
       </c>
       <c r="E25" s="1">
-        <v>1.6632075924838396e-11</v>
+        <v>2.6167717298575255e-11</v>
       </c>
     </row>
     <row r="26">
@@ -541,10 +541,10 @@
         <v>28.736949920654297</v>
       </c>
       <c r="D26" s="2">
-        <v>413071</v>
+        <v>364647.15625</v>
       </c>
       <c r="E26" s="1">
-        <v>1.2175952468496121e-09</v>
+        <v>1.9156773944928318e-09</v>
       </c>
     </row>
     <row r="27">
@@ -558,10 +558,10 @@
         <v>1</v>
       </c>
       <c r="D27" s="2">
-        <v>413071</v>
+        <v>364647.15625</v>
       </c>
       <c r="E27" s="1">
-        <v>6.3555563589723363e-11</v>
+        <v>9.9993770208417487e-11</v>
       </c>
     </row>
     <row r="28">
@@ -575,10 +575,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="2">
-        <v>401288</v>
+        <v>366768.6875</v>
       </c>
       <c r="E28" s="1">
-        <v>2.00687274957978e-12</v>
+        <v>3.0496588327572072e-12</v>
       </c>
     </row>
     <row r="29">
@@ -592,10 +592,10 @@
         <v>3391.396240234375</v>
       </c>
       <c r="D29" s="2">
-        <v>401288</v>
+        <v>366768.6875</v>
       </c>
       <c r="E29" s="1">
-        <v>5.544981696026241e-10</v>
+        <v>8.4261958521736346e-10</v>
       </c>
     </row>
     <row r="30">
@@ -609,10 +609,10 @@
         <v>3425.46044921875</v>
       </c>
       <c r="D30" s="2">
-        <v>401288</v>
+        <v>366768.6875</v>
       </c>
       <c r="E30" s="1">
-        <v>4.6529738395584275e-10</v>
+        <v>7.0706940302756038e-10</v>
       </c>
     </row>
     <row r="31">
@@ -626,10 +626,10 @@
         <v>5138.1904296875</v>
       </c>
       <c r="D31" s="2">
-        <v>401288</v>
+        <v>366768.6875</v>
       </c>
       <c r="E31" s="1">
-        <v>6.1630128778134008e-10</v>
+        <v>9.3653607091681579e-10</v>
       </c>
     </row>
     <row r="32">
@@ -643,10 +643,10 @@
         <v>10276.646484375</v>
       </c>
       <c r="D32" s="2">
-        <v>401288</v>
+        <v>366768.6875</v>
       </c>
       <c r="E32" s="1">
-        <v>3.1493225804979375e-09</v>
+        <v>4.7857340312873475e-09</v>
       </c>
     </row>
     <row r="33">
@@ -660,10 +660,10 @@
         <v>20553.455078125</v>
       </c>
       <c r="D33" s="2">
-        <v>401288</v>
+        <v>366768.6875</v>
       </c>
       <c r="E33" s="1">
-        <v>6.5536869264803954e-09</v>
+        <v>9.9590318214382023e-09</v>
       </c>
     </row>
     <row r="34">
@@ -677,10 +677,10 @@
         <v>39392.796875</v>
       </c>
       <c r="D34" s="2">
-        <v>401288</v>
+        <v>366768.6875</v>
       </c>
       <c r="E34" s="1">
-        <v>1.6969501359653805e-08</v>
+        <v>2.5786983215425607e-08</v>
       </c>
     </row>
     <row r="35">
@@ -694,10 +694,10 @@
         <v>66799.1640625</v>
       </c>
       <c r="D35" s="2">
-        <v>401288</v>
+        <v>366768.6875</v>
       </c>
       <c r="E35" s="1">
-        <v>2.1390714977087555e-08</v>
+        <v>3.2505489855338965e-08</v>
       </c>
     </row>
     <row r="36">
@@ -711,10 +711,10 @@
         <v>101379.2734375</v>
       </c>
       <c r="D36" s="2">
-        <v>401288</v>
+        <v>366768.6875</v>
       </c>
       <c r="E36" s="1">
-        <v>2.4164938494664057e-08</v>
+        <v>3.6721221619018252e-08</v>
       </c>
     </row>
     <row r="37">
@@ -728,10 +728,10 @@
         <v>101844.890625</v>
       </c>
       <c r="D37" s="2">
-        <v>401288</v>
+        <v>366768.6875</v>
       </c>
       <c r="E37" s="1">
-        <v>1.3978119994817462e-08</v>
+        <v>2.1241255865334097e-08</v>
       </c>
     </row>
     <row r="38">
@@ -745,10 +745,10 @@
         <v>48607.265625</v>
       </c>
       <c r="D38" s="2">
-        <v>401288</v>
+        <v>366768.6875</v>
       </c>
       <c r="E38" s="1">
-        <v>1.3641811236198009e-08</v>
+        <v>2.0730199778995484e-08</v>
       </c>
     </row>
     <row r="39">
@@ -762,10 +762,10 @@
         <v>22819.166015625</v>
       </c>
       <c r="D39" s="2">
-        <v>401288</v>
+        <v>366768.6875</v>
       </c>
       <c r="E39" s="1">
-        <v>7.0278174391091852e-09</v>
+        <v>1.0679523931855783e-08</v>
       </c>
     </row>
     <row r="40">
@@ -779,10 +779,10 @@
         <v>16821.482421875</v>
       </c>
       <c r="D40" s="2">
-        <v>401288</v>
+        <v>366768.6875</v>
       </c>
       <c r="E40" s="1">
-        <v>9.0829299637107397e-09</v>
+        <v>1.380248804139228e-08</v>
       </c>
     </row>
     <row r="41">
@@ -796,10 +796,10 @@
         <v>9348.9384765625</v>
       </c>
       <c r="D41" s="2">
-        <v>401288</v>
+        <v>366768.6875</v>
       </c>
       <c r="E41" s="1">
-        <v>5.2722706200825087e-09</v>
+        <v>8.0117823486602902e-09</v>
       </c>
     </row>
     <row r="42">
@@ -813,10 +813,10 @@
         <v>3209.826904296875</v>
       </c>
       <c r="D42" s="2">
-        <v>401288</v>
+        <v>366768.6875</v>
       </c>
       <c r="E42" s="1">
-        <v>2.208930593994296e-09</v>
+        <v>3.3567075785612133e-09</v>
       </c>
     </row>
     <row r="43">
@@ -830,10 +830,10 @@
         <v>1158.077880859375</v>
       </c>
       <c r="D43" s="2">
-        <v>401288</v>
+        <v>366768.6875</v>
       </c>
       <c r="E43" s="1">
-        <v>1.4886678556536026e-09</v>
+        <v>2.2621908790654288e-09</v>
       </c>
     </row>
     <row r="44">
@@ -847,10 +847,10 @@
         <v>2747.529052734375</v>
       </c>
       <c r="D44" s="2">
-        <v>401288</v>
+        <v>366768.6875</v>
       </c>
       <c r="E44" s="1">
-        <v>2.5247250956539347e-09</v>
+        <v>3.8365910448590057e-09</v>
       </c>
     </row>
     <row r="45">
@@ -864,10 +864,10 @@
         <v>22.1123046875</v>
       </c>
       <c r="D45" s="2">
-        <v>401288</v>
+        <v>366768.6875</v>
       </c>
       <c r="E45" s="1">
-        <v>2.8608287613862693e-11</v>
+        <v>4.3473370736624162e-11</v>
       </c>
     </row>
     <row r="46">
@@ -881,10 +881,10 @@
         <v>219.06906127929688</v>
       </c>
       <c r="D46" s="2">
-        <v>401288</v>
+        <v>366768.6875</v>
       </c>
       <c r="E46" s="1">
-        <v>2.7509253208712892e-10</v>
+        <v>4.1803266404016881e-10</v>
       </c>
     </row>
     <row r="47">
@@ -898,10 +898,10 @@
         <v>153.74470520019531</v>
       </c>
       <c r="D47" s="2">
-        <v>401288</v>
+        <v>366768.6875</v>
       </c>
       <c r="E47" s="1">
-        <v>4.231066053073107e-10</v>
+        <v>6.4295596624575069e-10</v>
       </c>
     </row>
     <row r="48">
@@ -915,10 +915,10 @@
         <v>758.41668701171875</v>
       </c>
       <c r="D48" s="2">
-        <v>401288</v>
+        <v>366768.6875</v>
       </c>
       <c r="E48" s="1">
-        <v>2.0677344281239129e-09</v>
+        <v>3.1421447665991309e-09</v>
       </c>
     </row>
     <row r="49">
@@ -932,10 +932,10 @@
         <v>1</v>
       </c>
       <c r="D49" s="2">
-        <v>401288</v>
+        <v>366768.6875</v>
       </c>
       <c r="E49" s="1">
-        <v>5.9368677508830903e-12</v>
+        <v>9.0217087272970176e-12</v>
       </c>
     </row>
     <row r="50">
@@ -949,10 +949,10 @@
         <v>1</v>
       </c>
       <c r="D50" s="2">
-        <v>401288</v>
+        <v>366768.6875</v>
       </c>
       <c r="E50" s="1">
-        <v>5.8635674440865593e-12</v>
+        <v>8.9103203981810708e-12</v>
       </c>
     </row>
     <row r="51">
@@ -966,10 +966,10 @@
         <v>1</v>
       </c>
       <c r="D51" s="2">
-        <v>401288</v>
+        <v>366768.6875</v>
       </c>
       <c r="E51" s="1">
-        <v>1.7120442216689291e-11</v>
+        <v>2.6016352266955423e-11</v>
       </c>
     </row>
     <row r="52">
@@ -983,10 +983,10 @@
         <v>1</v>
       </c>
       <c r="D52" s="2">
-        <v>401288</v>
+        <v>366768.6875</v>
       </c>
       <c r="E52" s="1">
-        <v>4.3614493960841827e-11</v>
+        <v>6.6276914512108931e-11</v>
       </c>
     </row>
     <row r="53">
@@ -1000,10 +1000,10 @@
         <v>1</v>
       </c>
       <c r="D53" s="2">
-        <v>401288</v>
+        <v>366768.6875</v>
       </c>
       <c r="E53" s="1">
-        <v>6.5421744410709692e-11</v>
+        <v>9.9415371768163396e-11</v>
       </c>
     </row>
     <row r="54">
@@ -1017,10 +1017,10 @@
         <v>1</v>
       </c>
       <c r="D54" s="2">
-        <v>104251</v>
+        <v>84755.328125</v>
       </c>
       <c r="E54" s="1">
-        <v>7.7249517546618129e-12</v>
+        <v>1.3197038947754258e-11</v>
       </c>
     </row>
     <row r="55">
@@ -1034,10 +1034,10 @@
         <v>1</v>
       </c>
       <c r="D55" s="2">
-        <v>104251</v>
+        <v>84755.328125</v>
       </c>
       <c r="E55" s="1">
-        <v>6.2935767708438561e-13</v>
+        <v>1.0751728283728279e-12</v>
       </c>
     </row>
     <row r="56">
@@ -1051,10 +1051,10 @@
         <v>1</v>
       </c>
       <c r="D56" s="2">
-        <v>104251</v>
+        <v>84755.328125</v>
       </c>
       <c r="E56" s="1">
-        <v>5.2286262342340906e-13</v>
+        <v>8.9324034280302556e-13</v>
       </c>
     </row>
     <row r="57">
@@ -1068,10 +1068,10 @@
         <v>1</v>
       </c>
       <c r="D57" s="2">
-        <v>104251</v>
+        <v>84755.328125</v>
       </c>
       <c r="E57" s="1">
-        <v>4.616988757456808e-13</v>
+        <v>7.8875030421962644e-13</v>
       </c>
     </row>
     <row r="58">
@@ -1085,10 +1085,10 @@
         <v>6792.662109375</v>
       </c>
       <c r="D58" s="2">
-        <v>104251</v>
+        <v>84755.328125</v>
       </c>
       <c r="E58" s="1">
-        <v>8.012751351316183e-09</v>
+        <v>1.3688706168579756e-08</v>
       </c>
     </row>
     <row r="59">
@@ -1102,10 +1102,10 @@
         <v>6792.662109375</v>
       </c>
       <c r="D59" s="2">
-        <v>104251</v>
+        <v>84755.328125</v>
       </c>
       <c r="E59" s="1">
-        <v>8.3371345382943218e-09</v>
+        <v>1.4242870882696934e-08</v>
       </c>
     </row>
     <row r="60">
@@ -1119,10 +1119,10 @@
         <v>13585.32421875</v>
       </c>
       <c r="D60" s="2">
-        <v>104251</v>
+        <v>84755.328125</v>
       </c>
       <c r="E60" s="1">
-        <v>2.2526734255734482e-08</v>
+        <v>3.8483889852614084e-08</v>
       </c>
     </row>
     <row r="61">
@@ -1136,10 +1136,10 @@
         <v>27521.62109375</v>
       </c>
       <c r="D61" s="2">
-        <v>104251</v>
+        <v>84755.328125</v>
       </c>
       <c r="E61" s="1">
-        <v>3.3923779341193949e-08</v>
+        <v>5.7954203214194422e-08</v>
       </c>
     </row>
     <row r="62">
@@ -1153,10 +1153,10 @@
         <v>19926.083984375</v>
       </c>
       <c r="D62" s="2">
-        <v>104251</v>
+        <v>84755.328125</v>
       </c>
       <c r="E62" s="1">
-        <v>1.8282451108575515e-08</v>
+        <v>3.1233103214844959e-08</v>
       </c>
     </row>
     <row r="63">
@@ -1170,10 +1170,10 @@
         <v>20674.02734375</v>
       </c>
       <c r="D63" s="2">
-        <v>104251</v>
+        <v>84755.328125</v>
       </c>
       <c r="E63" s="1">
-        <v>1.0922210691433065e-08</v>
+        <v>1.8659125800013499e-08</v>
       </c>
     </row>
     <row r="64">
@@ -1187,10 +1187,10 @@
         <v>71350.390625</v>
       </c>
       <c r="D64" s="2">
-        <v>104251</v>
+        <v>84755.328125</v>
       </c>
       <c r="E64" s="1">
-        <v>7.7080258620298991e-08</v>
+        <v>1.3168123302875756e-07</v>
       </c>
     </row>
     <row r="65">
@@ -1204,10 +1204,10 @@
         <v>11922.8095703125</v>
       </c>
       <c r="D65" s="2">
-        <v>104251</v>
+        <v>84755.328125</v>
       </c>
       <c r="E65" s="1">
-        <v>1.413433103891748e-08</v>
+        <v>2.4146599386654088e-08</v>
       </c>
     </row>
     <row r="66">
@@ -1221,10 +1221,10 @@
         <v>7621.3359375</v>
       </c>
       <c r="D66" s="2">
-        <v>104251</v>
+        <v>84755.328125</v>
       </c>
       <c r="E66" s="1">
-        <v>1.584049513780883e-08</v>
+        <v>2.7061350493795544e-08</v>
       </c>
     </row>
     <row r="67">
@@ -1238,10 +1238,10 @@
         <v>4257.033203125</v>
       </c>
       <c r="D67" s="2">
-        <v>104251</v>
+        <v>84755.328125</v>
       </c>
       <c r="E67" s="1">
-        <v>9.2409875307453149e-09</v>
+        <v>1.5786982388021897e-08</v>
       </c>
     </row>
     <row r="68">
@@ -1255,10 +1255,10 @@
         <v>7877.763671875</v>
       </c>
       <c r="D68" s="2">
-        <v>104251</v>
+        <v>84755.328125</v>
       </c>
       <c r="E68" s="1">
-        <v>2.0867929606538382e-08</v>
+        <v>3.5650046470436791e-08</v>
       </c>
     </row>
     <row r="69">
@@ -1272,10 +1272,10 @@
         <v>2798.78662109375</v>
       </c>
       <c r="D69" s="2">
-        <v>104251</v>
+        <v>84755.328125</v>
       </c>
       <c r="E69" s="1">
-        <v>1.3848596935872592e-08</v>
+        <v>2.3658461856257418e-08</v>
       </c>
     </row>
     <row r="70">
@@ -1289,10 +1289,10 @@
         <v>2381.849365234375</v>
       </c>
       <c r="D70" s="2">
-        <v>104251</v>
+        <v>84755.328125</v>
       </c>
       <c r="E70" s="1">
-        <v>8.4248474863102274e-09</v>
+        <v>1.4392716352062962e-08</v>
       </c>
     </row>
     <row r="71">
@@ -1306,10 +1306,10 @@
         <v>1824.46142578125</v>
       </c>
       <c r="D71" s="2">
-        <v>104251</v>
+        <v>84755.328125</v>
       </c>
       <c r="E71" s="1">
-        <v>9.085911578665673e-09</v>
+        <v>1.5522054752636905e-08</v>
       </c>
     </row>
     <row r="72">
@@ -1323,10 +1323,10 @@
         <v>365.51907348632813</v>
       </c>
       <c r="D72" s="2">
-        <v>104251</v>
+        <v>84755.328125</v>
       </c>
       <c r="E72" s="1">
-        <v>1.7667851626157471e-09</v>
+        <v>3.0183142651907247e-09</v>
       </c>
     </row>
     <row r="73">
@@ -1340,10 +1340,10 @@
         <v>1</v>
       </c>
       <c r="D73" s="2">
-        <v>104251</v>
+        <v>84755.328125</v>
       </c>
       <c r="E73" s="1">
-        <v>1.0593161764438364e-11</v>
+        <v>1.8096989184979151e-11</v>
       </c>
     </row>
     <row r="74">
@@ -1357,10 +1357,10 @@
         <v>1</v>
       </c>
       <c r="D74" s="2">
-        <v>104251</v>
+        <v>84755.328125</v>
       </c>
       <c r="E74" s="1">
-        <v>1.049452625495606e-11</v>
+        <v>1.7928483350693192e-11</v>
       </c>
     </row>
     <row r="75">
@@ -1374,10 +1374,10 @@
         <v>39.485660552978516</v>
       </c>
       <c r="D75" s="2">
-        <v>104251</v>
+        <v>84755.328125</v>
       </c>
       <c r="E75" s="1">
-        <v>9.0234519856124962e-10</v>
+        <v>1.5415351217740181e-09</v>
       </c>
     </row>
     <row r="76">
@@ -1391,10 +1391,10 @@
         <v>1</v>
       </c>
       <c r="D76" s="2">
-        <v>104251</v>
+        <v>84755.328125</v>
       </c>
       <c r="E76" s="1">
-        <v>2.2570327551374447e-11</v>
+        <v>3.8558361364904314e-11</v>
       </c>
     </row>
     <row r="77">
@@ -1408,10 +1408,10 @@
         <v>1</v>
       </c>
       <c r="D77" s="2">
-        <v>104251</v>
+        <v>84755.328125</v>
       </c>
       <c r="E77" s="1">
-        <v>6.5900833401411063e-11</v>
+        <v>1.125827001069446e-10</v>
       </c>
     </row>
     <row r="78">
@@ -1425,10 +1425,10 @@
         <v>1</v>
       </c>
       <c r="D78" s="2">
-        <v>104251</v>
+        <v>84755.328125</v>
       </c>
       <c r="E78" s="1">
-        <v>1.6788301304693221e-10</v>
+        <v>2.868055237748024e-10</v>
       </c>
     </row>
     <row r="79">
@@ -1442,10 +1442,10 @@
         <v>1</v>
       </c>
       <c r="D79" s="2">
-        <v>104251</v>
+        <v>84755.328125</v>
       </c>
       <c r="E79" s="1">
-        <v>2.5182453344818612e-10</v>
+        <v>4.3020828566220359e-10</v>
       </c>
     </row>
     <row r="80">
@@ -1459,10 +1459,10 @@
         <v>21824.0830078125</v>
       </c>
       <c r="D80" s="2">
-        <v>544681</v>
+        <v>413377.84375</v>
       </c>
       <c r="E80" s="1">
-        <v>3.2267831073795605e-08</v>
+        <v>5.90516862075674e-08</v>
       </c>
     </row>
     <row r="81">
@@ -1476,10 +1476,10 @@
         <v>37517.7578125</v>
       </c>
       <c r="D81" s="2">
-        <v>544681</v>
+        <v>413377.84375</v>
       </c>
       <c r="E81" s="1">
-        <v>4.519312923889629e-09</v>
+        <v>8.2705602366672792e-09</v>
       </c>
     </row>
     <row r="82">
@@ -1493,10 +1493,10 @@
         <v>41539.47265625</v>
       </c>
       <c r="D82" s="2">
-        <v>544681</v>
+        <v>413377.84375</v>
       </c>
       <c r="E82" s="1">
-        <v>4.1570626940767852e-09</v>
+        <v>7.6076256405599452e-09</v>
       </c>
     </row>
     <row r="83">
@@ -1510,10 +1510,10 @@
         <v>53902.87109375</v>
       </c>
       <c r="D83" s="2">
-        <v>544681</v>
+        <v>413377.84375</v>
       </c>
       <c r="E83" s="1">
-        <v>4.7633084143683391e-09</v>
+        <v>8.7170848317441596e-09</v>
       </c>
     </row>
     <row r="84">
@@ -1527,10 +1527,10 @@
         <v>96456.0625</v>
       </c>
       <c r="D84" s="2">
-        <v>544681</v>
+        <v>413377.84375</v>
       </c>
       <c r="E84" s="1">
-        <v>2.1777559311431105e-08</v>
+        <v>3.9853983224702461e-08</v>
       </c>
     </row>
     <row r="85">
@@ -1544,10 +1544,10 @@
         <v>167566</v>
       </c>
       <c r="D85" s="2">
-        <v>544681</v>
+        <v>413377.84375</v>
       </c>
       <c r="E85" s="1">
-        <v>3.9364135062669448e-08</v>
+        <v>7.2038261578200036e-08</v>
       </c>
     </row>
     <row r="86">
@@ -1561,10 +1561,10 @@
         <v>105670.4609375</v>
       </c>
       <c r="D86" s="2">
-        <v>544681</v>
+        <v>413377.84375</v>
       </c>
       <c r="E86" s="1">
-        <v>3.3536661447897131e-08</v>
+        <v>6.1373711446321977e-08</v>
       </c>
     </row>
     <row r="87">
@@ -1578,10 +1578,10 @@
         <v>57121.421875</v>
       </c>
       <c r="D87" s="2">
-        <v>544681</v>
+        <v>413377.84375</v>
       </c>
       <c r="E87" s="1">
-        <v>1.3476192606276527e-08</v>
+        <v>2.4662083930593326e-08</v>
       </c>
     </row>
     <row r="88">
@@ -1595,10 +1595,10 @@
         <v>46254.15234375</v>
       </c>
       <c r="D88" s="2">
-        <v>544681</v>
+        <v>413377.84375</v>
       </c>
       <c r="E88" s="1">
-        <v>8.1227140569239964e-09</v>
+        <v>1.4864959929639099e-08</v>
       </c>
     </row>
     <row r="89">
@@ -1612,10 +1612,10 @@
         <v>48882.15234375</v>
       </c>
       <c r="D89" s="2">
-        <v>544681</v>
+        <v>413377.84375</v>
       </c>
       <c r="E89" s="1">
-        <v>4.9428083848113147e-09</v>
+        <v>9.0455785084486706e-09</v>
       </c>
     </row>
     <row r="90">
@@ -1629,10 +1629,10 @@
         <v>25259.025390625</v>
       </c>
       <c r="D90" s="2">
-        <v>544681</v>
+        <v>413377.84375</v>
       </c>
       <c r="E90" s="1">
-        <v>5.2227759894662995e-09</v>
+        <v>9.5579322234584652e-09</v>
       </c>
     </row>
     <row r="91">
@@ -1646,10 +1646,10 @@
         <v>25165.419921875</v>
       </c>
       <c r="D91" s="2">
-        <v>544681</v>
+        <v>413377.84375</v>
       </c>
       <c r="E91" s="1">
-        <v>5.7100359995843064e-09</v>
+        <v>1.0449641152376898e-08</v>
       </c>
     </row>
     <row r="92">
@@ -1663,10 +1663,10 @@
         <v>12969.8212890625</v>
       </c>
       <c r="D92" s="2">
-        <v>544681</v>
+        <v>413377.84375</v>
       </c>
       <c r="E92" s="1">
-        <v>5.1595239192181452e-09</v>
+        <v>9.4421777063757872e-09</v>
       </c>
     </row>
     <row r="93">
@@ -1680,10 +1680,10 @@
         <v>13052.5927734375</v>
       </c>
       <c r="D93" s="2">
-        <v>544681</v>
+        <v>413377.84375</v>
       </c>
       <c r="E93" s="1">
-        <v>5.4230815393907505e-09</v>
+        <v>9.9245012208371008e-09</v>
       </c>
     </row>
     <row r="94">
@@ -1697,10 +1697,10 @@
         <v>6735.6923828125</v>
       </c>
       <c r="D94" s="2">
-        <v>544681</v>
+        <v>413377.84375</v>
       </c>
       <c r="E94" s="1">
-        <v>3.4150469119254012e-09</v>
+        <v>6.2497003128214601e-09</v>
       </c>
     </row>
     <row r="95">
@@ -1714,10 +1714,10 @@
         <v>1455.8448486328125</v>
       </c>
       <c r="D95" s="2">
-        <v>544681</v>
+        <v>413377.84375</v>
       </c>
       <c r="E95" s="1">
-        <v>1.3787612163085328e-09</v>
+        <v>2.5231996492180997e-09</v>
       </c>
     </row>
     <row r="96">
@@ -1731,10 +1731,10 @@
         <v>1041.784423828125</v>
       </c>
       <c r="D96" s="2">
-        <v>544681</v>
+        <v>413377.84375</v>
       </c>
       <c r="E96" s="1">
-        <v>7.0528333173669466e-10</v>
+        <v>1.2907024338204565e-09</v>
       </c>
     </row>
     <row r="97">
@@ -1748,10 +1748,10 @@
         <v>188.81553649902344</v>
       </c>
       <c r="D97" s="2">
-        <v>544681</v>
+        <v>413377.84375</v>
       </c>
       <c r="E97" s="1">
-        <v>1.7997391077440028e-10</v>
+        <v>3.2936092742019696e-10</v>
       </c>
     </row>
     <row r="98">
@@ -1765,10 +1765,10 @@
         <v>1</v>
       </c>
       <c r="D98" s="2">
-        <v>544681</v>
+        <v>413377.84375</v>
       </c>
       <c r="E98" s="1">
-        <v>9.2514906326057744e-13</v>
+        <v>1.6930673443077415e-12</v>
       </c>
     </row>
     <row r="99">
@@ -1782,10 +1782,10 @@
         <v>1.1908577680587769</v>
       </c>
       <c r="D99" s="2">
-        <v>544681</v>
+        <v>413377.84375</v>
       </c>
       <c r="E99" s="1">
-        <v>2.4144792068470089e-12</v>
+        <v>4.418613478579525e-12</v>
       </c>
     </row>
     <row r="100">
@@ -1799,10 +1799,10 @@
         <v>431.74685668945313</v>
       </c>
       <c r="D100" s="2">
-        <v>544681</v>
+        <v>413377.84375</v>
       </c>
       <c r="E100" s="1">
-        <v>8.6722146130924216e-10</v>
+        <v>1.5870570413412111e-09</v>
       </c>
     </row>
     <row r="101">
@@ -1816,10 +1816,10 @@
         <v>1</v>
       </c>
       <c r="D101" s="2">
-        <v>544681</v>
+        <v>413377.84375</v>
       </c>
       <c r="E101" s="1">
-        <v>4.3739248334340175e-12</v>
+        <v>8.0044929018363575e-12</v>
       </c>
     </row>
     <row r="102">
@@ -1833,10 +1833,10 @@
         <v>1</v>
       </c>
       <c r="D102" s="2">
-        <v>544681</v>
+        <v>413377.84375</v>
       </c>
       <c r="E102" s="1">
-        <v>4.3199215905842525e-12</v>
+        <v>7.9056648380482208e-12</v>
       </c>
     </row>
     <row r="103">
@@ -1850,10 +1850,10 @@
         <v>1</v>
       </c>
       <c r="D103" s="2">
-        <v>544681</v>
+        <v>413377.84375</v>
       </c>
       <c r="E103" s="1">
-        <v>1.2613305365449801e-11</v>
+        <v>2.3082957420483829e-11</v>
       </c>
     </row>
     <row r="104">
@@ -1867,10 +1867,10 @@
         <v>1</v>
       </c>
       <c r="D104" s="2">
-        <v>544681</v>
+        <v>413377.84375</v>
       </c>
       <c r="E104" s="1">
-        <v>3.2132518867911131e-11</v>
+        <v>5.8804058844508234e-11</v>
       </c>
     </row>
     <row r="105">
@@ -1884,10 +1884,10 @@
         <v>1</v>
       </c>
       <c r="D105" s="2">
-        <v>544681</v>
+        <v>413377.84375</v>
       </c>
       <c r="E105" s="1">
-        <v>4.8198781771313648e-11</v>
+        <v>8.8206095205656254e-11</v>
       </c>
     </row>
     <row r="106">
@@ -1901,10 +1901,10 @@
         <v>134.28837013244629</v>
       </c>
       <c r="D106" s="2">
-        <v>26646</v>
+        <v>21042.580078125</v>
       </c>
       <c r="E106" s="1">
-        <v>4.0586574101553197e-09</v>
+        <v>7.138104773929399e-09</v>
       </c>
     </row>
     <row r="107">
@@ -1918,10 +1918,10 @@
         <v>113.16357421875</v>
       </c>
       <c r="D107" s="2">
-        <v>26646</v>
+        <v>21042.580078125</v>
       </c>
       <c r="E107" s="1">
-        <v>2.7864571761071488e-10</v>
+        <v>4.9006415592245389e-10</v>
       </c>
     </row>
     <row r="108">
@@ -1935,10 +1935,10 @@
         <v>125.29415130615234</v>
       </c>
       <c r="D108" s="2">
-        <v>26646</v>
+        <v>21042.580078125</v>
       </c>
       <c r="E108" s="1">
-        <v>2.5631061162378899e-10</v>
+        <v>4.5078260568764961e-10</v>
       </c>
     </row>
     <row r="109">
@@ -1952,10 +1952,10 @@
         <v>162.58546447753906</v>
       </c>
       <c r="D109" s="2">
-        <v>26646</v>
+        <v>21042.580078125</v>
       </c>
       <c r="E109" s="1">
-        <v>2.9368971143917122e-10</v>
+        <v>5.1652254695611077e-10</v>
       </c>
     </row>
     <row r="110">
@@ -1969,10 +1969,10 @@
         <v>290.937255859375</v>
       </c>
       <c r="D110" s="2">
-        <v>26646</v>
+        <v>21042.580078125</v>
       </c>
       <c r="E110" s="1">
-        <v>1.3427315925795824e-09</v>
+        <v>2.3615098765361608e-09</v>
       </c>
     </row>
     <row r="111">
@@ -1986,10 +1986,10 @@
         <v>505.423828125</v>
       </c>
       <c r="D111" s="2">
-        <v>26646</v>
+        <v>21042.580078125</v>
       </c>
       <c r="E111" s="1">
-        <v>2.4270609966237089e-09</v>
+        <v>4.2685588397262109e-09</v>
       </c>
     </row>
     <row r="112">
@@ -2003,10 +2003,10 @@
         <v>318.7303466796875</v>
       </c>
       <c r="D112" s="2">
-        <v>26646</v>
+        <v>21042.580078125</v>
       </c>
       <c r="E112" s="1">
-        <v>2.0677586309858498e-09</v>
+        <v>3.6366405442578298e-09</v>
       </c>
     </row>
     <row r="113">
@@ -2020,10 +2020,10 @@
         <v>172.29347229003906</v>
       </c>
       <c r="D113" s="2">
-        <v>26646</v>
+        <v>21042.580078125</v>
       </c>
       <c r="E113" s="1">
-        <v>8.3089707336725382e-10</v>
+        <v>1.4613282806053007e-09</v>
       </c>
     </row>
     <row r="114">
@@ -2037,10 +2037,10 @@
         <v>71.059036254882813</v>
       </c>
       <c r="D114" s="2">
-        <v>26646</v>
+        <v>21042.580078125</v>
       </c>
       <c r="E114" s="1">
-        <v>2.5508209433589002e-10</v>
+        <v>4.4862197290385097e-10</v>
       </c>
     </row>
     <row r="115">
@@ -2054,10 +2054,10 @@
         <v>9055.728515625</v>
       </c>
       <c r="D115" s="2">
-        <v>26646</v>
+        <v>21042.580078125</v>
       </c>
       <c r="E115" s="1">
-        <v>1.8717896566045056e-08</v>
+        <v>3.2919832193556431e-08</v>
       </c>
     </row>
     <row r="116">
@@ -2071,10 +2071,10 @@
         <v>4679.0712890625</v>
       </c>
       <c r="D116" s="2">
-        <v>26646</v>
+        <v>21042.580078125</v>
       </c>
       <c r="E116" s="1">
-        <v>1.977673846909056e-08</v>
+        <v>3.4782054569859611e-08</v>
       </c>
     </row>
     <row r="117">
@@ -2088,10 +2088,10 @@
         <v>4710.19482421875</v>
       </c>
       <c r="D117" s="2">
-        <v>26646</v>
+        <v>21042.580078125</v>
       </c>
       <c r="E117" s="1">
-        <v>2.1846593867280717e-08</v>
+        <v>3.8422381720693011e-08</v>
       </c>
     </row>
     <row r="118">
@@ -2105,10 +2105,10 @@
         <v>2427.552734375</v>
       </c>
       <c r="D118" s="2">
-        <v>26646</v>
+        <v>21042.580078125</v>
       </c>
       <c r="E118" s="1">
-        <v>1.9740335588380731e-08</v>
+        <v>3.4718027563940268e-08</v>
       </c>
     </row>
     <row r="119">
@@ -2122,10 +2122,10 @@
         <v>2443.045166015625</v>
       </c>
       <c r="D119" s="2">
-        <v>26646</v>
+        <v>21042.580078125</v>
       </c>
       <c r="E119" s="1">
-        <v>2.0748707640905195e-08</v>
+        <v>3.6491488941692296e-08</v>
       </c>
     </row>
     <row r="120">
@@ -2139,10 +2139,10 @@
         <v>1260.715087890625</v>
       </c>
       <c r="D120" s="2">
-        <v>26646</v>
+        <v>21042.580078125</v>
       </c>
       <c r="E120" s="1">
-        <v>1.3065967863212791e-08</v>
+        <v>2.2979580904802788e-08</v>
       </c>
     </row>
     <row r="121">
@@ -2156,10 +2156,10 @@
         <v>272.489501953125</v>
       </c>
       <c r="D121" s="2">
-        <v>26646</v>
+        <v>21042.580078125</v>
       </c>
       <c r="E121" s="1">
-        <v>5.2751394363781401e-09</v>
+        <v>9.2775751525664418e-09</v>
       </c>
     </row>
     <row r="122">
@@ -2173,10 +2173,10 @@
         <v>194.99009704589844</v>
       </c>
       <c r="D122" s="2">
-        <v>26646</v>
+        <v>21042.580078125</v>
       </c>
       <c r="E122" s="1">
-        <v>2.6984134926522074e-09</v>
+        <v>4.7457957563779019e-09</v>
       </c>
     </row>
     <row r="123">
@@ -2190,10 +2190,10 @@
         <v>35.340480804443359</v>
       </c>
       <c r="D123" s="2">
-        <v>26646</v>
+        <v>21042.580078125</v>
       </c>
       <c r="E123" s="1">
-        <v>6.8858008184236041e-10</v>
+        <v>1.2110302760603986e-09</v>
       </c>
     </row>
     <row r="124">
@@ -2207,10 +2207,10 @@
         <v>1</v>
       </c>
       <c r="D124" s="2">
-        <v>26646</v>
+        <v>21042.580078125</v>
       </c>
       <c r="E124" s="1">
-        <v>1.8911322161030419e-11</v>
+        <v>3.3260016268910064e-11</v>
       </c>
     </row>
     <row r="125">
@@ -2224,10 +2224,10 @@
         <v>0.22289204597473145</v>
       </c>
       <c r="D125" s="2">
-        <v>26646</v>
+        <v>21042.580078125</v>
       </c>
       <c r="E125" s="1">
-        <v>9.2377962918055445e-12</v>
+        <v>1.6246840678357799e-11</v>
       </c>
     </row>
     <row r="126">
@@ -2241,10 +2241,10 @@
         <v>80.809776306152344</v>
       </c>
       <c r="D126" s="2">
-        <v>26646</v>
+        <v>21042.580078125</v>
       </c>
       <c r="E126" s="1">
-        <v>3.3179889946666208e-09</v>
+        <v>5.8354650001035679e-09</v>
       </c>
     </row>
     <row r="127">
@@ -2258,10 +2258,10 @@
         <v>1</v>
       </c>
       <c r="D127" s="2">
-        <v>26646</v>
+        <v>21042.580078125</v>
       </c>
       <c r="E127" s="1">
-        <v>8.9409056547307131e-11</v>
+        <v>1.572468821819939e-10</v>
       </c>
     </row>
     <row r="128">
@@ -2275,10 +2275,10 @@
         <v>1</v>
       </c>
       <c r="D128" s="2">
-        <v>26646</v>
+        <v>21042.580078125</v>
       </c>
       <c r="E128" s="1">
-        <v>8.8305154855028434e-11</v>
+        <v>1.5530540742325627e-10</v>
       </c>
     </row>
     <row r="129">
@@ -2292,10 +2292,10 @@
         <v>1</v>
       </c>
       <c r="D129" s="2">
-        <v>26646</v>
+        <v>21042.580078125</v>
       </c>
       <c r="E129" s="1">
-        <v>2.5783336576878924e-10</v>
+        <v>4.5346071342322603e-10</v>
       </c>
     </row>
     <row r="130">
@@ -2309,10 +2309,10 @@
         <v>1</v>
       </c>
       <c r="D130" s="2">
-        <v>26646</v>
+        <v>21042.580078125</v>
       </c>
       <c r="E130" s="1">
-        <v>6.5683303240859914e-10</v>
+        <v>1.155195605839765e-09</v>
       </c>
     </row>
     <row r="131">
@@ -2326,10 +2326,10 @@
         <v>1</v>
       </c>
       <c r="D131" s="2">
-        <v>26646</v>
+        <v>21042.580078125</v>
       </c>
       <c r="E131" s="1">
-        <v>9.8524954861289871e-10</v>
+        <v>1.7327934642707987e-09</v>
       </c>
     </row>
     <row r="132">
@@ -2343,10 +2343,10 @@
         <v>11408.04638671875</v>
       </c>
       <c r="D132" s="2">
-        <v>4579196</v>
+        <v>4031299</v>
       </c>
       <c r="E132" s="1">
-        <v>2.0063100070188966e-09</v>
+        <v>3.1652627185962956e-09</v>
       </c>
     </row>
     <row r="133">
@@ -2360,10 +2360,10 @@
         <v>7715.42578125</v>
       </c>
       <c r="D133" s="2">
-        <v>4579196</v>
+        <v>4031299</v>
       </c>
       <c r="E133" s="1">
-        <v>1.1054736986926272e-10</v>
+        <v>1.7440549004987815e-10</v>
       </c>
     </row>
     <row r="134">
@@ -2377,10 +2377,10 @@
         <v>15430.8515625</v>
       </c>
       <c r="D134" s="2">
-        <v>4579196</v>
+        <v>4031299</v>
       </c>
       <c r="E134" s="1">
-        <v>1.8368280507718993e-10</v>
+        <v>2.8978788813027734e-10</v>
       </c>
     </row>
     <row r="135">
@@ -2394,10 +2394,10 @@
         <v>57865.69140625</v>
       </c>
       <c r="D135" s="2">
-        <v>4579196</v>
+        <v>4031299</v>
       </c>
       <c r="E135" s="1">
-        <v>6.0823435177326246e-10</v>
+        <v>9.5958330170731188e-10</v>
       </c>
     </row>
     <row r="136">
@@ -2411,10 +2411,10 @@
         <v>329834.46875</v>
       </c>
       <c r="D136" s="2">
-        <v>4579196</v>
+        <v>4031299</v>
       </c>
       <c r="E136" s="1">
-        <v>8.8578575585529506e-09</v>
+        <v>1.3974633894520139e-08</v>
       </c>
     </row>
     <row r="137">
@@ -2428,10 +2428,10 @@
         <v>756983.3125</v>
       </c>
       <c r="D137" s="2">
-        <v>4579196</v>
+        <v>4031299</v>
       </c>
       <c r="E137" s="1">
-        <v>2.1152128937274028e-08</v>
+        <v>3.3370739060956112e-08</v>
       </c>
     </row>
     <row r="138">
@@ -2445,10 +2445,10 @@
         <v>1419638.375</v>
       </c>
       <c r="D138" s="2">
-        <v>4579196</v>
+        <v>4031299</v>
       </c>
       <c r="E138" s="1">
-        <v>5.3591627136029274e-08</v>
+        <v>8.4549043322112993e-08</v>
       </c>
     </row>
     <row r="139">
@@ -2462,10 +2462,10 @@
         <v>1462073.375</v>
       </c>
       <c r="D139" s="2">
-        <v>4579196</v>
+        <v>4031299</v>
       </c>
       <c r="E139" s="1">
-        <v>4.1028947350696399e-08</v>
+        <v>6.4729476889624493e-08</v>
       </c>
     </row>
     <row r="140">
@@ -2479,10 +2479,10 @@
         <v>1849950.25</v>
       </c>
       <c r="D140" s="2">
-        <v>4579196</v>
+        <v>4031299</v>
       </c>
       <c r="E140" s="1">
-        <v>3.8642347988115944e-08</v>
+        <v>6.0964254089412862e-08</v>
       </c>
     </row>
     <row r="141">
@@ -2496,10 +2496,10 @@
         <v>1821877</v>
       </c>
       <c r="D141" s="2">
-        <v>4579196</v>
+        <v>4031299</v>
       </c>
       <c r="E141" s="1">
-        <v>2.1912681447133764e-08</v>
+        <v>3.4570625473406835e-08</v>
       </c>
     </row>
     <row r="142">
@@ -2513,10 +2513,10 @@
         <v>1804473.125</v>
       </c>
       <c r="D142" s="2">
-        <v>4579196</v>
+        <v>4031299</v>
       </c>
       <c r="E142" s="1">
-        <v>4.4380094266216474e-08</v>
+        <v>7.0016426434449386e-08</v>
       </c>
     </row>
     <row r="143">
@@ -2530,10 +2530,10 @@
         <v>1530667.625</v>
       </c>
       <c r="D143" s="2">
-        <v>4579196</v>
+        <v>4031299</v>
       </c>
       <c r="E143" s="1">
-        <v>4.1311270848609638e-08</v>
+        <v>6.5174880603535712e-08</v>
       </c>
     </row>
     <row r="144">
@@ -2547,10 +2547,10 @@
         <v>473065.34375</v>
       </c>
       <c r="D144" s="2">
-        <v>4579196</v>
+        <v>4031299</v>
       </c>
       <c r="E144" s="1">
-        <v>2.2384622155868783e-08</v>
+        <v>3.531518544264145e-08</v>
       </c>
     </row>
     <row r="145">
@@ -2564,10 +2564,10 @@
         <v>188753.421875</v>
       </c>
       <c r="D145" s="2">
-        <v>4579196</v>
+        <v>4031299</v>
       </c>
       <c r="E145" s="1">
-        <v>9.3281853352777944e-09</v>
+        <v>1.4716648344403893e-08</v>
       </c>
     </row>
     <row r="146">
@@ -2581,10 +2581,10 @@
         <v>110866.84375</v>
       </c>
       <c r="D146" s="2">
-        <v>4579196</v>
+        <v>4031299</v>
       </c>
       <c r="E146" s="1">
-        <v>6.6860419423164785e-09</v>
+        <v>1.0548260043208302e-08</v>
       </c>
     </row>
     <row r="147">
@@ -2598,10 +2598,10 @@
         <v>66996.6328125</v>
       </c>
       <c r="D147" s="2">
-        <v>4579196</v>
+        <v>4031299</v>
       </c>
       <c r="E147" s="1">
-        <v>7.5470971694358013e-09</v>
+        <v>1.1906707619857571e-08</v>
       </c>
     </row>
     <row r="148">
@@ -2615,10 +2615,10 @@
         <v>45128.6796875</v>
       </c>
       <c r="D148" s="2">
-        <v>4579196</v>
+        <v>4031299</v>
       </c>
       <c r="E148" s="1">
-        <v>3.6340539466550581e-09</v>
+        <v>5.7332791847386488e-09</v>
       </c>
     </row>
     <row r="149">
@@ -2632,10 +2632,10 @@
         <v>15531.3642578125</v>
       </c>
       <c r="D149" s="2">
-        <v>4579196</v>
+        <v>4031299</v>
       </c>
       <c r="E149" s="1">
-        <v>1.760898871161487e-09</v>
+        <v>2.7780888700590367e-09</v>
       </c>
     </row>
     <row r="150">
@@ -2649,10 +2649,10 @@
         <v>28200.48046875</v>
       </c>
       <c r="D150" s="2">
-        <v>4579196</v>
+        <v>4031299</v>
       </c>
       <c r="E150" s="1">
-        <v>3.1032816316667322e-09</v>
+        <v>4.8959045706453708e-09</v>
       </c>
     </row>
     <row r="151">
@@ -2666,10 +2666,10 @@
         <v>24472.72265625</v>
       </c>
       <c r="D151" s="2">
-        <v>4579196</v>
+        <v>4031299</v>
       </c>
       <c r="E151" s="1">
-        <v>5.9019953368988354e-09</v>
+        <v>9.3113063925898132e-09</v>
       </c>
     </row>
     <row r="152">
@@ -2683,10 +2683,10 @@
         <v>4989.20458984375</v>
       </c>
       <c r="D152" s="2">
-        <v>4579196</v>
+        <v>4031299</v>
       </c>
       <c r="E152" s="1">
-        <v>1.1920243681018405e-09</v>
+        <v>1.8806018964312443e-09</v>
       </c>
     </row>
     <row r="153">
@@ -2700,10 +2700,10 @@
         <v>266.86636352539063</v>
       </c>
       <c r="D153" s="2">
-        <v>4579196</v>
+        <v>4031299</v>
       </c>
       <c r="E153" s="1">
-        <v>1.3884113303497259e-10</v>
+        <v>2.1904324187804747e-10</v>
       </c>
     </row>
     <row r="154">
@@ -2717,10 +2717,10 @@
         <v>1</v>
       </c>
       <c r="D154" s="2">
-        <v>4579196</v>
+        <v>4031299</v>
       </c>
       <c r="E154" s="1">
-        <v>5.1384113977648305e-13</v>
+        <v>8.1066338537827409e-13</v>
       </c>
     </row>
     <row r="155">
@@ -2734,10 +2734,10 @@
         <v>1334.2342529296875</v>
       </c>
       <c r="D155" s="2">
-        <v>4579196</v>
+        <v>4031299</v>
       </c>
       <c r="E155" s="1">
-        <v>2.0017691948481797e-09</v>
+        <v>3.1580988935075993e-09</v>
       </c>
     </row>
     <row r="156">
@@ -2751,10 +2751,10 @@
         <v>1410.909423828125</v>
       </c>
       <c r="D156" s="2">
-        <v>4579196</v>
+        <v>4031299</v>
       </c>
       <c r="E156" s="1">
-        <v>5.3925837129042975e-09</v>
+        <v>8.5076310440967973e-09</v>
       </c>
     </row>
     <row r="157">
@@ -2768,10 +2768,10 @@
         <v>1410.909423828125</v>
       </c>
       <c r="D157" s="2">
-        <v>4579196</v>
+        <v>4031299</v>
       </c>
       <c r="E157" s="1">
-        <v>8.088876235490261e-09</v>
+        <v>1.2761446122055986e-08</v>
       </c>
     </row>
     <row r="158">
@@ -2785,10 +2785,10 @@
         <v>3678.1162109375</v>
       </c>
       <c r="D158" s="2">
-        <v>3474730</v>
+        <v>3166250.5</v>
       </c>
       <c r="E158" s="1">
-        <v>8.5247248149400434e-10</v>
+        <v>1.2993426334872993e-09</v>
       </c>
     </row>
     <row r="159">
@@ -2802,10 +2802,10 @@
         <v>16939.51953125</v>
       </c>
       <c r="D159" s="2">
-        <v>3474730</v>
+        <v>3166250.5</v>
       </c>
       <c r="E159" s="1">
-        <v>3.1985841753012778e-10</v>
+        <v>4.8752968329068835e-10</v>
       </c>
     </row>
     <row r="160">
@@ -2819,10 +2819,10 @@
         <v>24468.1953125</v>
       </c>
       <c r="D160" s="2">
-        <v>3474730</v>
+        <v>3166250.5</v>
       </c>
       <c r="E160" s="1">
-        <v>3.8383865530455807e-10</v>
+        <v>5.8504867617159562e-10</v>
       </c>
     </row>
     <row r="161">
@@ -2836,10 +2836,10 @@
         <v>39525.546875</v>
       </c>
       <c r="D161" s="2">
-        <v>3474730</v>
+        <v>3166250.5</v>
       </c>
       <c r="E161" s="1">
-        <v>5.4751481126658064e-10</v>
+        <v>8.3452467158906529e-10</v>
       </c>
     </row>
     <row r="162">
@@ -2853,10 +2853,10 @@
         <v>133633.984375</v>
       </c>
       <c r="D162" s="2">
-        <v>3474730</v>
+        <v>3166250.5</v>
       </c>
       <c r="E162" s="1">
-        <v>4.7295274363534645e-09</v>
+        <v>7.208768249000741e-09</v>
       </c>
     </row>
     <row r="163">
@@ -2870,10 +2870,10 @@
         <v>465110.09375</v>
       </c>
       <c r="D163" s="2">
-        <v>3474730</v>
+        <v>3166250.5</v>
       </c>
       <c r="E163" s="1">
-        <v>1.712741060089229e-08</v>
+        <v>2.6105681172339246e-08</v>
       </c>
     </row>
     <row r="164">
@@ -2887,10 +2887,10 @@
         <v>793181</v>
       </c>
       <c r="D164" s="2">
-        <v>3474730</v>
+        <v>3166250.5</v>
       </c>
       <c r="E164" s="1">
-        <v>3.9460235967681001e-08</v>
+        <v>6.0145481484141783e-08</v>
       </c>
     </row>
     <row r="165">
@@ -2904,10 +2904,10 @@
         <v>1103116</v>
       </c>
       <c r="D165" s="2">
-        <v>3474730</v>
+        <v>3166250.5</v>
       </c>
       <c r="E165" s="1">
-        <v>4.0795338662746872e-08</v>
+        <v>6.2180447457649279e-08</v>
       </c>
     </row>
     <row r="166">
@@ -2921,10 +2921,10 @@
         <v>1329250.25</v>
       </c>
       <c r="D166" s="2">
-        <v>3474730</v>
+        <v>3166250.5</v>
       </c>
       <c r="E166" s="1">
-        <v>3.6591345065062342e-08</v>
+        <v>5.577270201229112e-08</v>
       </c>
     </row>
     <row r="167">
@@ -2938,10 +2938,10 @@
         <v>1418061.125</v>
       </c>
       <c r="D167" s="2">
-        <v>3474730</v>
+        <v>3166250.5</v>
       </c>
       <c r="E167" s="1">
-        <v>2.2477063765791172e-08</v>
+        <v>3.4259645786960391e-08</v>
       </c>
     </row>
     <row r="168">
@@ -2955,10 +2955,10 @@
         <v>1144588.125</v>
       </c>
       <c r="D168" s="2">
-        <v>3474730</v>
+        <v>3166250.5</v>
       </c>
       <c r="E168" s="1">
-        <v>3.7098402572155464e-08</v>
+        <v>5.6545559345977381e-08</v>
       </c>
     </row>
     <row r="169">
@@ -2972,10 +2972,10 @@
         <v>725501.1875</v>
       </c>
       <c r="D169" s="2">
-        <v>3474730</v>
+        <v>3166250.5</v>
       </c>
       <c r="E169" s="1">
-        <v>2.5804411052376963e-08</v>
+        <v>3.9331204959580646e-08</v>
       </c>
     </row>
     <row r="170">
@@ -2989,10 +2989,10 @@
         <v>397486.84375</v>
       </c>
       <c r="D170" s="2">
-        <v>3474730</v>
+        <v>3166250.5</v>
       </c>
       <c r="E170" s="1">
-        <v>2.4786748653582436e-08</v>
+        <v>3.7780079509275311e-08</v>
       </c>
     </row>
     <row r="171">
@@ -3006,10 +3006,10 @@
         <v>139783.953125</v>
       </c>
       <c r="D171" s="2">
-        <v>3474730</v>
+        <v>3166250.5</v>
       </c>
       <c r="E171" s="1">
-        <v>9.1039069616272172e-09</v>
+        <v>1.3876218396546847e-08</v>
       </c>
     </row>
     <row r="172">
@@ -3023,10 +3023,10 @@
         <v>81353.90625</v>
       </c>
       <c r="D172" s="2">
-        <v>3474730</v>
+        <v>3166250.5</v>
       </c>
       <c r="E172" s="1">
-        <v>6.4656768827831002e-09</v>
+        <v>9.8550154703502812e-09</v>
       </c>
     </row>
     <row r="173">
@@ -3040,10 +3040,10 @@
         <v>84700.65625</v>
       </c>
       <c r="D173" s="2">
-        <v>3474730</v>
+        <v>3166250.5</v>
       </c>
       <c r="E173" s="1">
-        <v>1.2574244756535791e-08</v>
+        <v>1.9165723230685217e-08</v>
       </c>
     </row>
     <row r="174">
@@ -3057,10 +3057,10 @@
         <v>63858.88671875</v>
       </c>
       <c r="D174" s="2">
-        <v>3474730</v>
+        <v>3166250.5</v>
       </c>
       <c r="E174" s="1">
-        <v>6.7768559652847671e-09</v>
+        <v>1.0329316069146444e-08</v>
       </c>
     </row>
     <row r="175">
@@ -3074,10 +3074,10 @@
         <v>46017.0546875</v>
       </c>
       <c r="D175" s="2">
-        <v>3474730</v>
+        <v>3166250.5</v>
       </c>
       <c r="E175" s="1">
-        <v>6.8756187410201619e-09</v>
+        <v>1.0479850764966159e-08</v>
       </c>
     </row>
     <row r="176">
@@ -3091,10 +3091,10 @@
         <v>25970.791015625</v>
       </c>
       <c r="D176" s="2">
-        <v>3474730</v>
+        <v>3166250.5</v>
       </c>
       <c r="E176" s="1">
-        <v>3.7663272500765288e-09</v>
+        <v>5.740653730157419e-09</v>
       </c>
     </row>
     <row r="177">
@@ -3108,10 +3108,10 @@
         <v>24433.2421875</v>
       </c>
       <c r="D177" s="2">
-        <v>3474730</v>
+        <v>3166250.5</v>
       </c>
       <c r="E177" s="1">
-        <v>7.7654362939938437e-09</v>
+        <v>1.1836114310881385e-08</v>
       </c>
     </row>
     <row r="178">
@@ -3125,10 +3125,10 @@
         <v>17033.984375</v>
       </c>
       <c r="D178" s="2">
-        <v>3474730</v>
+        <v>3166250.5</v>
       </c>
       <c r="E178" s="1">
-        <v>5.3633759655724589e-09</v>
+        <v>8.1748829927619227e-09</v>
       </c>
     </row>
     <row r="179">
@@ -3142,10 +3142,10 @@
         <v>8572.4755859375</v>
       </c>
       <c r="D179" s="2">
-        <v>3474730</v>
+        <v>3166250.5</v>
       </c>
       <c r="E179" s="1">
-        <v>5.8775824207657479e-09</v>
+        <v>8.9586391638363239e-09</v>
       </c>
     </row>
     <row r="180">
@@ -3159,10 +3159,10 @@
         <v>4426.23876953125</v>
       </c>
       <c r="D180" s="2">
-        <v>3474730</v>
+        <v>3166250.5</v>
       </c>
       <c r="E180" s="1">
-        <v>2.9973112880554709e-09</v>
+        <v>4.5685157878949667e-09</v>
       </c>
     </row>
     <row r="181">
@@ -3176,10 +3176,10 @@
         <v>1481.4808349609375</v>
       </c>
       <c r="D181" s="2">
-        <v>3474730</v>
+        <v>3166250.5</v>
       </c>
       <c r="E181" s="1">
-        <v>2.9291804537479038e-09</v>
+        <v>4.4646708552420478e-09</v>
       </c>
     </row>
     <row r="182">
@@ -3193,10 +3193,10 @@
         <v>3182.314453125</v>
       </c>
       <c r="D182" s="2">
-        <v>3474730</v>
+        <v>3166250.5</v>
       </c>
       <c r="E182" s="1">
-        <v>1.6029096272518473e-08</v>
+        <v>2.4431624723320056e-08</v>
       </c>
     </row>
     <row r="183">
@@ -3210,10 +3210,10 @@
         <v>1169.5413818359375</v>
       </c>
       <c r="D183" s="2">
-        <v>3474730</v>
+        <v>3166250.5</v>
       </c>
       <c r="E183" s="1">
-        <v>8.836347653584653e-09</v>
+        <v>1.3468403281535757e-08</v>
       </c>
     </row>
     <row r="184">
@@ -3227,10 +3227,10 @@
         <v>1</v>
       </c>
       <c r="D184" s="2">
-        <v>472523</v>
+        <v>381559.28125</v>
       </c>
       <c r="E184" s="1">
-        <v>1.704327434390307e-12</v>
+        <v>2.9314432825611192e-12</v>
       </c>
     </row>
     <row r="185">
@@ -3244,10 +3244,10 @@
         <v>1</v>
       </c>
       <c r="D185" s="2">
-        <v>472523</v>
+        <v>381559.28125</v>
       </c>
       <c r="E185" s="1">
-        <v>1.3885285065837194e-13</v>
+        <v>2.3882691614282581e-13</v>
       </c>
     </row>
     <row r="186">
@@ -3261,10 +3261,10 @@
         <v>2511.77294921875</v>
       </c>
       <c r="D186" s="2">
-        <v>472523</v>
+        <v>381559.28125</v>
       </c>
       <c r="E186" s="1">
-        <v>2.8975122301488909e-10</v>
+        <v>4.983720658380264e-10</v>
       </c>
     </row>
     <row r="187">
@@ -3278,10 +3278,10 @@
         <v>7535.318359375</v>
       </c>
       <c r="D187" s="2">
-        <v>472523</v>
+        <v>381559.28125</v>
       </c>
       <c r="E187" s="1">
-        <v>7.6756945244227381e-10</v>
+        <v>1.3202194892869556e-09</v>
       </c>
     </row>
     <row r="188">
@@ -3295,10 +3295,10 @@
         <v>6698.06103515625</v>
       </c>
       <c r="D188" s="2">
-        <v>472523</v>
+        <v>381559.28125</v>
       </c>
       <c r="E188" s="1">
-        <v>1.743203359438894e-09</v>
+        <v>2.9983096005992138e-09</v>
       </c>
     </row>
     <row r="189">
@@ -3312,10 +3312,10 @@
         <v>23443.21484375</v>
       </c>
       <c r="D189" s="2">
-        <v>472523</v>
+        <v>381559.28125</v>
       </c>
       <c r="E189" s="1">
-        <v>6.3482095136180305e-09</v>
+        <v>1.0918919990388076e-08</v>
       </c>
     </row>
     <row r="190">
@@ -3329,10 +3329,10 @@
         <v>69373.703125</v>
       </c>
       <c r="D190" s="2">
-        <v>472523</v>
+        <v>381559.28125</v>
       </c>
       <c r="E190" s="1">
-        <v>2.5379343071563198e-08</v>
+        <v>4.3652470083088701e-08</v>
       </c>
     </row>
     <row r="191">
@@ -3346,10 +3346,10 @@
         <v>92947.296875</v>
       </c>
       <c r="D191" s="2">
-        <v>472523</v>
+        <v>381559.28125</v>
       </c>
       <c r="E191" s="1">
-        <v>2.5276925441630738e-08</v>
+        <v>4.3476312328039057e-08</v>
       </c>
     </row>
     <row r="192">
@@ -3363,10 +3363,10 @@
         <v>99862.421875</v>
       </c>
       <c r="D192" s="2">
-        <v>472523</v>
+        <v>381559.28125</v>
       </c>
       <c r="E192" s="1">
-        <v>2.021491063430858e-08</v>
+        <v>3.4769648493693239e-08</v>
       </c>
     </row>
     <row r="193">
@@ -3380,10 +3380,10 @@
         <v>161406.171875</v>
       </c>
       <c r="D193" s="2">
-        <v>472523</v>
+        <v>381559.28125</v>
       </c>
       <c r="E193" s="1">
-        <v>1.8813208768619916e-08</v>
+        <v>3.2358720147840359e-08</v>
       </c>
     </row>
     <row r="194">
@@ -3397,10 +3397,10 @@
         <v>168335.203125</v>
       </c>
       <c r="D194" s="2">
-        <v>472523</v>
+        <v>381559.28125</v>
       </c>
       <c r="E194" s="1">
-        <v>4.0121673094972721e-08</v>
+        <v>6.9009274739073589e-08</v>
       </c>
     </row>
     <row r="195">
@@ -3414,10 +3414,10 @@
         <v>175975.8125</v>
       </c>
       <c r="D195" s="2">
-        <v>472523</v>
+        <v>381559.28125</v>
       </c>
       <c r="E195" s="1">
-        <v>4.6026389810549517e-08</v>
+        <v>7.9165388910951151e-08</v>
       </c>
     </row>
     <row r="196">
@@ -3431,10 +3431,10 @@
         <v>74305.1171875</v>
       </c>
       <c r="D196" s="2">
-        <v>472523</v>
+        <v>381559.28125</v>
       </c>
       <c r="E196" s="1">
-        <v>3.4073256216515801e-08</v>
+        <v>5.8605998276561877e-08</v>
       </c>
     </row>
     <row r="197">
@@ -3448,10 +3448,10 @@
         <v>40157.73046875</v>
       </c>
       <c r="D197" s="2">
-        <v>472523</v>
+        <v>381559.28125</v>
       </c>
       <c r="E197" s="1">
-        <v>1.923259063119076e-08</v>
+        <v>3.3080056027756655e-08</v>
       </c>
     </row>
     <row r="198">
@@ -3465,10 +3465,10 @@
         <v>46802.75</v>
       </c>
       <c r="D198" s="2">
-        <v>472523</v>
+        <v>381559.28125</v>
       </c>
       <c r="E198" s="1">
-        <v>2.7353006970542992e-08</v>
+        <v>4.7047169715597192e-08</v>
       </c>
     </row>
     <row r="199">
@@ -3482,10 +3482,10 @@
         <v>40736.27734375</v>
       </c>
       <c r="D199" s="2">
-        <v>472523</v>
+        <v>381559.28125</v>
       </c>
       <c r="E199" s="1">
-        <v>4.4470763072013142e-08</v>
+        <v>7.6489712341754057e-08</v>
       </c>
     </row>
     <row r="200">
@@ -3499,10 +3499,10 @@
         <v>12047.95703125</v>
       </c>
       <c r="D200" s="2">
-        <v>472523</v>
+        <v>381559.28125</v>
       </c>
       <c r="E200" s="1">
-        <v>9.4019609875317656e-09</v>
+        <v>1.6171371797213396e-08</v>
       </c>
     </row>
     <row r="201">
@@ -3516,10 +3516,10 @@
         <v>9004.51953125</v>
       </c>
       <c r="D201" s="2">
-        <v>472523</v>
+        <v>381559.28125</v>
       </c>
       <c r="E201" s="1">
-        <v>9.8935384329479348e-09</v>
+        <v>1.7016885678344806e-08</v>
       </c>
     </row>
     <row r="202">
@@ -3533,10 +3533,10 @@
         <v>12211.779296875</v>
       </c>
       <c r="D202" s="2">
-        <v>472523</v>
+        <v>381559.28125</v>
       </c>
       <c r="E202" s="1">
-        <v>1.3022966705023009e-08</v>
+        <v>2.23995009207556e-08</v>
       </c>
     </row>
     <row r="203">
@@ -3550,10 +3550,10 @@
         <v>2118.204833984375</v>
       </c>
       <c r="D203" s="2">
-        <v>472523</v>
+        <v>381559.28125</v>
       </c>
       <c r="E203" s="1">
-        <v>4.950519993940361e-09</v>
+        <v>8.5148945672131049e-09</v>
       </c>
     </row>
     <row r="204">
@@ -3567,10 +3567,10 @@
         <v>2860.111328125</v>
       </c>
       <c r="D204" s="2">
-        <v>472523</v>
+        <v>381559.28125</v>
       </c>
       <c r="E204" s="1">
-        <v>6.6222112238278896e-09</v>
+        <v>1.1390203447092517e-08</v>
       </c>
     </row>
     <row r="205">
@@ -3584,10 +3584,10 @@
         <v>7697.09521484375</v>
       </c>
       <c r="D205" s="2">
-        <v>472523</v>
+        <v>381559.28125</v>
       </c>
       <c r="E205" s="1">
-        <v>3.880765930830421e-08</v>
+        <v>6.6749173299740505e-08</v>
       </c>
     </row>
     <row r="206">
@@ -3601,10 +3601,10 @@
         <v>397.3414306640625</v>
       </c>
       <c r="D206" s="2">
-        <v>472523</v>
+        <v>381559.28125</v>
       </c>
       <c r="E206" s="1">
-        <v>1.9786043914393758e-09</v>
+        <v>3.4031994999850212e-09</v>
       </c>
     </row>
     <row r="207">
@@ -3618,10 +3618,10 @@
         <v>2857.03955078125</v>
       </c>
       <c r="D207" s="2">
-        <v>472523</v>
+        <v>381559.28125</v>
       </c>
       <c r="E207" s="1">
-        <v>4.1539806261425838e-08</v>
+        <v>7.1448461369527649e-08</v>
       </c>
     </row>
     <row r="208">
@@ -3635,10 +3635,10 @@
         <v>11.731792449951172</v>
       </c>
       <c r="D208" s="2">
-        <v>472523</v>
+        <v>381559.28125</v>
       </c>
       <c r="E208" s="1">
-        <v>4.3453865505860279e-10</v>
+        <v>7.4740647004745142e-10</v>
       </c>
     </row>
     <row r="209">
@@ -3652,10 +3652,10 @@
         <v>1</v>
       </c>
       <c r="D209" s="2">
-        <v>472523</v>
+        <v>381559.28125</v>
       </c>
       <c r="E209" s="1">
-        <v>5.5559116335368586e-11</v>
+        <v>9.5561676627387016e-11</v>
       </c>
     </row>
     <row r="210">
@@ -3669,10 +3669,10 @@
         <v>48750.55712890625</v>
       </c>
       <c r="D210" s="2">
-        <v>785624</v>
+        <v>651043.3125</v>
       </c>
       <c r="E210" s="1">
-        <v>4.9973621685239777e-08</v>
+        <v>8.3755473667679325e-08</v>
       </c>
     </row>
     <row r="211">
@@ -3686,10 +3686,10 @@
         <v>83544.078125</v>
       </c>
       <c r="D211" s="2">
-        <v>785624</v>
+        <v>651043.3125</v>
       </c>
       <c r="E211" s="1">
-        <v>6.9771601829415886e-09</v>
+        <v>1.1693676249535656e-08</v>
       </c>
     </row>
     <row r="212">
@@ -3703,10 +3703,10 @@
         <v>92499.5859375</v>
       </c>
       <c r="D212" s="2">
-        <v>785624</v>
+        <v>651043.3125</v>
       </c>
       <c r="E212" s="1">
-        <v>6.4178991010521713e-09</v>
+        <v>1.0756357582408782e-08</v>
       </c>
     </row>
     <row r="213">
@@ -3720,10 +3720,10 @@
         <v>120030.2578125</v>
       </c>
       <c r="D213" s="2">
-        <v>785624</v>
+        <v>651043.3125</v>
       </c>
       <c r="E213" s="1">
-        <v>7.3538544143048057e-09</v>
+        <v>1.2325013898362158e-08</v>
       </c>
     </row>
     <row r="214">
@@ -3737,10 +3737,10 @@
         <v>214787.171875</v>
       </c>
       <c r="D214" s="2">
-        <v>785624</v>
+        <v>651043.3125</v>
       </c>
       <c r="E214" s="1">
-        <v>3.3621375905568129e-08</v>
+        <v>5.6349215071804792e-08</v>
       </c>
     </row>
     <row r="215">
@@ -3754,10 +3754,10 @@
         <v>373133.9375</v>
       </c>
       <c r="D215" s="2">
-        <v>785624</v>
+        <v>651043.3125</v>
       </c>
       <c r="E215" s="1">
-        <v>6.0772492815885926e-08</v>
+        <v>1.0185430454612288e-07</v>
       </c>
     </row>
     <row r="216">
@@ -3771,10 +3771,10 @@
         <v>235305.6875</v>
       </c>
       <c r="D216" s="2">
-        <v>785624</v>
+        <v>651043.3125</v>
       </c>
       <c r="E216" s="1">
-        <v>5.1775717935242938e-08</v>
+        <v>8.6775777674574783e-08</v>
       </c>
     </row>
     <row r="217">
@@ -3788,10 +3788,10 @@
         <v>127197.28125</v>
       </c>
       <c r="D217" s="2">
-        <v>785624</v>
+        <v>651043.3125</v>
       </c>
       <c r="E217" s="1">
-        <v>2.0805277500812736e-08</v>
+        <v>3.4869515275204321e-08</v>
       </c>
     </row>
     <row r="218">
@@ -3805,10 +3805,10 @@
         <v>102998.1796875</v>
       </c>
       <c r="D218" s="2">
-        <v>785624</v>
+        <v>651043.3125</v>
       </c>
       <c r="E218" s="1">
-        <v>1.2540287919193815e-08</v>
+        <v>2.1017443785353862e-08</v>
       </c>
     </row>
     <row r="219">
@@ -3822,10 +3822,10 @@
         <v>108850.1796875</v>
       </c>
       <c r="D219" s="2">
-        <v>785624</v>
+        <v>651043.3125</v>
       </c>
       <c r="E219" s="1">
-        <v>7.6309758512138615e-09</v>
+        <v>1.2789468151197525e-08</v>
       </c>
     </row>
     <row r="220">
@@ -3839,10 +3839,10 @@
         <v>56093.53125</v>
       </c>
       <c r="D220" s="2">
-        <v>785624</v>
+        <v>651043.3125</v>
       </c>
       <c r="E220" s="1">
-        <v>8.0412778658001116e-09</v>
+        <v>1.347713052268773e-08</v>
       </c>
     </row>
     <row r="221">
@@ -3856,10 +3856,10 @@
         <v>78836.921875</v>
       </c>
       <c r="D221" s="2">
-        <v>785624</v>
+        <v>651043.3125</v>
       </c>
       <c r="E221" s="1">
-        <v>1.2402002091960185e-08</v>
+        <v>2.0785675403089954e-08</v>
       </c>
     </row>
     <row r="222">
@@ -3873,10 +3873,10 @@
         <v>40631.1796875</v>
       </c>
       <c r="D222" s="2">
-        <v>785624</v>
+        <v>651043.3125</v>
       </c>
       <c r="E222" s="1">
-        <v>1.1206307881650446e-08</v>
+        <v>1.8781701527359473e-08</v>
       </c>
     </row>
     <row r="223">
@@ -3890,10 +3890,10 @@
         <v>40890.484375</v>
       </c>
       <c r="D223" s="2">
-        <v>785624</v>
+        <v>651043.3125</v>
       </c>
       <c r="E223" s="1">
-        <v>1.1778746866752954e-08</v>
+        <v>1.9741104750892191e-08</v>
       </c>
     </row>
     <row r="224">
@@ -3907,10 +3907,10 @@
         <v>21101.2265625</v>
       </c>
       <c r="D224" s="2">
-        <v>785624</v>
+        <v>651043.3125</v>
       </c>
       <c r="E224" s="1">
-        <v>7.417364056294673e-09</v>
+        <v>1.2431454976535861e-08</v>
       </c>
     </row>
     <row r="225">
@@ -3924,10 +3924,10 @@
         <v>4560.794921875</v>
       </c>
       <c r="D225" s="2">
-        <v>785624</v>
+        <v>651043.3125</v>
       </c>
       <c r="E225" s="1">
-        <v>2.9946218838006189e-09</v>
+        <v>5.0189674638545512e-09</v>
       </c>
     </row>
     <row r="226">
@@ -3941,10 +3941,10 @@
         <v>3263.64794921875</v>
       </c>
       <c r="D226" s="2">
-        <v>785624</v>
+        <v>651043.3125</v>
       </c>
       <c r="E226" s="1">
-        <v>1.5318510904194227e-09</v>
+        <v>2.5673725367880706e-09</v>
       </c>
     </row>
     <row r="227">
@@ -3958,10 +3958,10 @@
         <v>591.51153564453125</v>
       </c>
       <c r="D227" s="2">
-        <v>785624</v>
+        <v>651043.3125</v>
       </c>
       <c r="E227" s="1">
-        <v>3.9089714798379305e-10</v>
+        <v>6.5514116354137286e-10</v>
       </c>
     </row>
     <row r="228">
@@ -3975,10 +3975,10 @@
         <v>1</v>
       </c>
       <c r="D228" s="2">
-        <v>785624</v>
+        <v>651043.3125</v>
       </c>
       <c r="E228" s="1">
-        <v>6.4141508944459691e-13</v>
+        <v>1.0750075959617411e-12</v>
       </c>
     </row>
     <row r="229">
@@ -3992,10 +3992,10 @@
         <v>3.7306571006774902</v>
       </c>
       <c r="D229" s="2">
-        <v>785624</v>
+        <v>651043.3125</v>
       </c>
       <c r="E229" s="1">
-        <v>5.2441657787116736e-12</v>
+        <v>8.7891881273005623e-12</v>
       </c>
     </row>
     <row r="230">
@@ -4009,10 +4009,10 @@
         <v>1352.5540771484375</v>
       </c>
       <c r="D230" s="2">
-        <v>785624</v>
+        <v>651043.3125</v>
       </c>
       <c r="E230" s="1">
-        <v>1.8835750736911905e-09</v>
+        <v>3.1568598846121176e-09</v>
       </c>
     </row>
     <row r="231">
@@ -4026,10 +4026,10 @@
         <v>1</v>
       </c>
       <c r="D231" s="2">
-        <v>785624</v>
+        <v>651043.3125</v>
       </c>
       <c r="E231" s="1">
-        <v>3.0324859377067748e-12</v>
+        <v>5.0824271007055e-12</v>
       </c>
     </row>
     <row r="232">
@@ -4043,10 +4043,10 @@
         <v>1</v>
       </c>
       <c r="D232" s="2">
-        <v>785624</v>
+        <v>651043.3125</v>
       </c>
       <c r="E232" s="1">
-        <v>2.9950449672438983e-12</v>
+        <v>5.0196760810472529e-12</v>
       </c>
     </row>
     <row r="233">
@@ -4060,10 +4060,10 @@
         <v>1</v>
       </c>
       <c r="D233" s="2">
-        <v>785624</v>
+        <v>651043.3125</v>
       </c>
       <c r="E233" s="1">
-        <v>8.744930994619704e-12</v>
+        <v>1.4656449665029214e-11</v>
       </c>
     </row>
     <row r="234">
@@ -4077,10 +4077,10 @@
         <v>1</v>
       </c>
       <c r="D234" s="2">
-        <v>785624</v>
+        <v>651043.3125</v>
       </c>
       <c r="E234" s="1">
-        <v>2.2277797662173526e-11</v>
+        <v>3.733744910472403e-11</v>
       </c>
     </row>
     <row r="235">
@@ -4094,10 +4094,10 @@
         <v>1</v>
       </c>
       <c r="D235" s="2">
-        <v>785624</v>
+        <v>651043.3125</v>
       </c>
       <c r="E235" s="1">
-        <v>3.3416699962707241e-11</v>
+        <v>5.6006171922362569e-11</v>
       </c>
     </row>
   </sheetData>
